--- a/deuChatbot/research_result/version_2(2000_400).xlsx
+++ b/deuChatbot/research_result/version_2(2000_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20911,6 +20911,6762 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 준비물, 주제, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7708861345658026</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어져 있습니다. 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하게 됩니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+이와 같이 디자인조형학과의 실기시험은 각 분야별로 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 준비하고, 당일 추첨을 통해 주제가 결정되며, 5시간 동안 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 원본과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 연결이 매끄럽지 않은 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성에서 약간의 이탈이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장 연결이 매끄럽지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8041923683246017</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%입니다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 잠자리와 저울을 제시하며, 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 콜라병과 계절을 제시하며, 화지크기는 켄트지2절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 대회 목록을 정확하게 나열하고 있으며, 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9549095199434304</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+배드민턴(남)의 경우:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+1. 춘계한국고등학교축구연맹전
+2. 추계한국고등학교축구연맹전
+3. 대한축구협회장배전국고등학교축구대회
+4. 문화체육관광부장관기전국고등학교축구대회
+5. 백운기전국고등학교축구대회
+6. 전국고등축구리그(권역별고교축구리그)
+7. 전국고등축구리그왕중왕전
+8. 무학기전국고등학교축구대회
+9. 청룡기전국고등학교축구대회
+10. 백록기전국고등학교축구대회
+11. 금강대기전국고등학교축구대회
+12. 대통령금배전국고등학교축구대회
+13. 금석배전국고등학생축구대회
+14. 부산MBC전국고등학생축구대회
+15. K리그 U18 챔피언십
+16. K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인 실기시험의 주제와 추첨 방식에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 추첨 방식을 일관되게 설명하고 있지만, 추가된 디자인 분야에 대한 언급이 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 내용을 잘 다루고 있으며, 기초디자인 실기시험에 대한 정보를 직접적으로 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 디자인 분야에 대한 언급이 사실과 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8162720512688241</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 작성해야 합니다. 디자인조형학과의 기초디자인 실기시험에 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되며, 선정된 주제들을 연결하여 작품을 완성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, "출결 점수의 반영 비율은 0%입니다."라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보인 "출결 점수의 반영 비율은 0%입니다."는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "출결 점수의 반영 비율은 0%입니다." 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 이어받고 있습니다. 그러나 추가된 정보가 원본과 일치하지 않아 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 비율 정보는 원본에 없으므로 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7571092882773297</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결 점수의 반영 비율은 0%입니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 정보의 정확성이 높으며, 원본 텍스트의 내용을 충실히 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 응답이 명확하고 이해하기 쉬워, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8472581729567491</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 인문사회과학대학의 국어국문학과 - 교직에서 가군 수능(일반학생전형)으로 17명을 모집한다고 언급되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6438169986387555</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 모집인원은 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8291031121253111</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 편이지만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8831013575727322</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급이 1일 경우 점수는 139입니다.
+- 등급이 2일 경우 점수는 131입니다.
+- 등급이 3일 경우 점수는 123입니다.
+- 등급이 4일 경우 점수는 115입니다.
+- 등급이 5일 경우 점수는 107입니다.
+- 등급이 6일 경우 점수는 99입니다.
+- 등급이 7일 경우 점수는 91입니다.
+- 등급이 8일 경우 점수는 83입니다.
+- 등급이 9일 경우 점수는 75입니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 부정확하게 설명하고 있습니다. 예술고 학생이 지원할 수 있는 모집단위에 대한 정보는 잘못된 정보이며, 원문에서 명시된 지원 자격과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 예술고 학생이 특정 모집단위에 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원문에서의 핵심 정보인 지원 불가 사실이 무시되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성을 가지고 있으나, 원문과의 내용적 일관성이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6123312463997198</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원 가능 여부는 지원 가능한 모집단위와 계열에 따라 다릅니다. 제공된 정보를 바탕으로, 예술고 학생은 다음과 같은 모집단위에서 지원할 수 있습니다:
+1. **미디어커뮤니케이션학과** - 이 과정은 예체능 계열에 속하므로 예술고 학생이 지원 가능합니다.
+2. **영화학과** - 이 과정도 예체능 계열에 속하므로 예술고 학생이 지원 가능합니다.
+다만, 예술고 학생이 특정 모집단위를 지원하기 위해서는 해당 모집단위의 지원 자격 및 제출 서류 등을 충분히 확인해야 합니다. 예를 들어, 미디어커뮤니케이션학과나 영화학과에서 요구하는 추가적인 서류나 조건 등에 대해 명확히 이해하고 준비해야 합니다.
+만약 더 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 대학 입학처와 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221cm로 명확히 제시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충되므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 혼합되어 있어 약간의 혼란을 초래합니다. "남은 268~271cm"와 "여은 218~221cm"의 조합이 명확한 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분에서 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 기록과 배점이 정확히 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 정보의 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.7223803010054382</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다. 이는 전형요소 반영비율에서 확인할 수 있는 정보입니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 세부사항(디자인조형학과의 세부 전공)을 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 맥락을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 실기고사 일정에 직접적으로 관련이 있으며, 추가된 전공 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4983764080083655</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024. 01. 17.(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 정보를 반복적으로 확인하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5079643604907462</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 없습니다. 위에서 제공된 정보를 확인해보니, 응용화학과는 수능 최저기준이 없음을 나타내고 있습니다. 만약 더 자세한 정보가 필요하시다면, https://ipsi.deu.ac.kr/main.do 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 완전히 부정하고 있으며, 제공된 내용과 상반된 주장을 하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 신설된 학과 목록을 제공하고 있지만, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 문장 구조를 가지고 있지만, 원본 텍스트와의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 신설된 학과에 대한 정보를 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.3987092550546252</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과 정보는 제공된 내용에서 확인할 수 없습니다. 추가적인 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 서류와 면접의 비율이 동일하게 언급되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.9275329785402846</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류가 70%, 면접이 30%입니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과로 '한의예과'를 언급하고 있으나, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트에 명시된 학과와는 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 답하고 있으나, 잘못된 정보를 포함하고 있어 관련성은 있지만 정확한 정보가 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7244359777201834</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이는 한의예과에서 수학(미적분/기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여한다는 정보가 있습니다. 다른 학과에서는 일반적으로 수능 성적을 반영하는 방식이지만, 가산점은 한의예과에서만 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 영역의 비율을 다르게 제시하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하지만, 원문에서 강조한 100% 반영이라는 핵심 내용을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 영역과 비율에 대한 설명이 일관되게 이어집니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 원문은 수능 성적을 100% 반영한다고 했으나, 생성된 응답은 각 영역별로 25%씩 반영된다고 하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7303694066598696</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%씩 반영됩니다.
+따라서, 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역에서 각각 25%의 비중으로 반영되며, 이는 전 모집단위에 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)와 학과 정보를 포함하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단일 날짜만을 언급하고 있지만, 생성된 응답은 여러 날짜와 학과를 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 주제에서 약간 벗어났습니다. 그러나 여전히 실기고사 날짜에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜와 학과를 나열하고 있어 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 단일 날짜 정보와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 추가 정보를 포함하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않으며, 정보의 정확성과 일관성이 부족합니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가적인 정보가 포함되어 있어 의미의 적절성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 추가적인 정보로 인해 혼란을 줄 수 있습니다. 그러나 기본적인 정보는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 '레저스포츠학과'와 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 이러한 학과가 언급되지 않았습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 학과를 포함하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 원본 텍스트에 포함되지 않은 학과가 언급되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절하지만, 원본 텍스트와의 불일치로 인해 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 정확성 문제로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8646758981687785</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형에서 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일치하는 사실을 포함하고 있으며, 수능 최저기준이 적용되지 않는다는 점을 정확히 전달하고 있습니다. 그러나 "모든 전형 유형에서 공통된 특징입니다"라는 추가 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 정보가 원문과의 일관성을 떨어뜨립니다. "모든 전형 유형에서 공통된 특징입니다"라는 문장은 원문에 포함되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "이는 모든 전형 유형에서 공통된 특징입니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 그러나 추가된 정보가 원문과의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지만, 추가된 정보가 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 추가된 정보가 원문의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8098372439371366</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 전형 유형에서 공통된 특징입니다. 자세한 내용은 https://ipsi.deu.ac.kr/main.do를 참조하시면 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 학부에서 학과로의 분리 내용을 잘 반영하고 있으며, 기계자동차로봇부품공학부의 분리에 대한 정보도 정확하게 전달하고 있습니다. 그러나, 모든 학과의 분리 내용을 나열하지 않아 일부 정보가 누락된 점이 아쉽습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으며, 기계자동차로봇부품공학부의 분리에 대한 설명이 원본과 일치합니다. 다만, 다른 학과의 분리에 대한 언급이 없어서 일관성에서 약간의 점수를 잃었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 학부에서 학과로의 분리에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가적인 학과에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 기계자동차로봇부품공학부의 분리에 대한 정확한 정보를 제공하고 있으며, 전반적으로 사실에 부합합니다. 그러나 모든 학과의 분리 내용을 포함하지 않아 완전한 정확성을 제공하지는 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 모든 학과에 대한 언급이 없어서 약간의 점수를 잃었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.6313365154997201</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과들이 학부에서 학과로 분리되었습니다. 예를 들어, 기계자동차로봇부품공학부는 기계공학과, 로봇·자동화공학과, 자동차공학과로 분리되었습니다.
+이와 같이 2023년에는 기계자동차로봇부품공학부라는 학부가 있었지만, 2024년에는 그 학부를 세 개의 독립된 학과로 나누어졌습니다. 이 변경사항은 각 학과에서 전문성을 더욱 강화하고자 하는 의도에서 이루어진 것으로 보입니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do를 참조하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수)를 포함하고 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.846015950337327</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에서 원서접수(인터넷) 마감일은 2024. 01. 06.(토)까지이며, 마감 시간은 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 잘못 전달하고 있습니다. 실제로는 여러 전형에서 변화가 있었으나, 응답에서는 모든 전형의 비율이 동일하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 전형 요소의 변화가 명확히 언급되었으나, 응답에서는 변화가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 적절한 설명을 제공하지 못하고 있습니다. 전형 요소 변화에 대한 질문에 대한 답변으로는 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 사실과 크게 다르며, 전형 요소의 변화에 대한 정확한 정보를 제공하지 못하고 있습니다. 이는 심각한 부정확성을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 주제를 다루고 있으나, 잘못된 정보로 인해 적절하지 않은 결론에 도달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 신뢰성은 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7638047154057344</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영 비율이 변경된 전형들은 다음과 같습니다.
+1. **학생부종합(성인학습자전형)**:
+   - **변경 전**: 서류 70% + 면접 30%
+   - **변경 후**: 동일합니다.
+2. **학생부종합(재직자전형)**:
+   - **변경 전**: 서류 70% + 면접 30%
+   - **변경 후**: 동일합니다.
+따라서, 2024학년도에 전형 요소 반영 비율이 변경된 전형은 없습니다. 모든 전형의 서류 평가와 면접 평가 비율이 동일하게 유지되고 있습니다. 자세한 내용은 공식 웹사이트를 참조하시기 바랍니다: &lt;https://ipsi. deu. ac. kr/main. do&gt;</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보는 일치합니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 서로 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기 비중에 대한 추가적인 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7765677961420326</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 동점자 처리 기준에서도 확인할 수 있습니다. 동의대학교에서는 실기/실적이 전체 평가 중에서 큰 비중을 차지하고 있으며, 특히 레저스포츠학과와 태권도학과에서는 실기 성적의 중요성이 더욱 강조되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 목적에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8145928555636468</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도에 신설되는 동의대학교의 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다. 이 세부 전공들은 학생들이 다양한 삶의 영역에서 창업과 비즈니스를 통해 가치를 창출할 수 있는 능력을 기르는 데 초점을 맞추고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 언급된 '체육학과'를 누락하고 '태권도학과'를 포함하고 있습니다. 원본 텍스트에 따르면 실기고사에 참여해야 하는 학과는 '체육학과'와 '레저스포츠학과'로, 태권도학과는 실기고사가 진행되지 않는다고 명시되어 있습니다. 따라서 여러 가지 사실 오류가 존재합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 '체육학과'와 '레저스포츠학과'를 언급하고 있지만, 생성된 응답은 '태권도학과'를 포함하여 서로 모순되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 가지지 않습니다. 원본 텍스트의 핵심 내용을 다루고 있으나, 잘못된 학과 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 불일치로 인해 응답의 일관성이 저하됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. '체육학과'를 누락하고 '태권도학과'를 잘못 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 생성된 응답이 매우 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 주제를 다루고 있으나, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.5816965575847127</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 레저스포츠학과와 태권도학과입니다. 
+- **레저스포츠학과**: 실기종목으로 제자리 멀리뛰기와 Z-런이 있으며, 각 종목별 배점은 350점(35%)입니다.
+- **태권도학과**: 실기고사는 진행되지 않으며, 이는 검정고시출신자/외국고교졸업예정자의 경우에 해당합니다.
+따라서, 실기고사를 진행해야 하는 학과는 레저스포츠학과와 태권도학과입니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형이 특정 학과에 한정되지 않는다고 주장하지만, 원문에서는 지원 가능한 학과 목록이 명확히 제시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제시된 특정 학과 목록과 상충하는 내용을 포함하고 있습니다. 원문은 특정 학과를 나열하고 있지만, 생성된 응답은 특정 학과에 한정되지 않는다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 원문에서 요구하는 특정 학과에 대한 정보가 부족하여 관련성이 떨어집니다. 원문에서 요구하는 질문에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 전체적인 논리적 흐름이 다소 부족합니다. 원문에서 요구하는 정보와의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 구체적인 학과 목록을 무시하고, 전형의 일반적인 특성에 대해 설명하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 많아 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 원문에서 요구하는 특정 학과에 대한 정보가 부족하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5100422472144482</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 경기실적우수자전형은 특정 학과에 한정되지 않습니다. 그러나 학생부교과 성적과 출결, 서류(실적) 등 평가 항목이 변경되었으므로 지원할 수 있는 학과의 특성과 요구 사항을 확인해야 합니다.
+특히, 2024학년도에는 실기/실적 위주 전형의 학생부 교과 성적 반영 방식이 바뀌어 전반적으로 평가 항목이 다양해졌습니다. 따라서 지원할 학과에 대한 자세한 정보를 확인하시고, 해당 학과의 요구 사항을 충족하는지 점검해보시기 바랍니다.
+만약 더 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공 목록을 정확하게 반영하고 있으며, 신설되는 학부에 대한 정보도 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 신설에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 전공과 학부의 신설에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8178240307560923</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 학부는 2024년에 신설되며, 이 세 가지 전공을 통해 학생들이 다양한 삶의 질 향상과 사회적 가치 창출을 위한 역량을 기를 수 있는 교육을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 잘못 해석하고 있습니다. 응답에서는 일반 고등학교 학생이 지원할 수 없다고 언급하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답은 일반 고등학교 학생에 대한 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공하는 정보와는 관련이 적습니다. 원문은 특수목적고등학교 출신 학생에 대한 정보인데, 응답은 일반 고등학교 학생에 대한 내용으로 초점이 맞춰져 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 질문이 주어졌음에도 불구하고 중국어로 응답한 점은 유의해야 합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 원문과의 연결이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 응답에서는 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 일치성이 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 의미를 다루고 있지만, 원문과의 의미적 일치가 부족합니다. 원문에서 다루는 주제와는 다른 내용을 다루고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 한국어 질문에 대한 중국어 응답이라는 점에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5108994912927121</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你的问题是关于是否可以作为普通高中学生申请동의大学的一般入学标准。根据提供的信息，东义大学的特殊招生类型包括农林地区学生和成人学习者（在职人员），但没有提到普通高中的学生可以直接申请一般入学标准。
+因此，如果你是普通高中的学生，你不能直接通过一般入学标准来申请东义大学。你需要查看是否有其他适合你的招生类型，例如农林地区学生或成人学习者（在职人员）等。
+如果还有疑问，建议访问东义大学的官方网站 https://ipsi. deu. ac. kr/main. do 以获取更详细的信息。</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답에서는 전혀 다른 학과들(스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과)을 언급하고 있습니다. 이는 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 다른 정보를 제공합니다. 원문에서 언급된 학과와 생성된 응답에서 언급된 학과가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 정보와 관련이 있지만, 주제와 관련된 정확한 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원문에서 가장 많이 모집하는 학과에 대한 질문에 대해 전혀 다른 학과를 나열하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 원문과의 관련성이 떨어지기 때문에 전체적인 일관성은 부족합니다. 주제와 관련된 정보가 아닌 다른 학과에 대한 설명이 포함되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 거의 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 제공하는 정보가 부정확하여 의미적으로 적절하지 않습니다. 원문에서 요구하는 정보와는 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 부족하여 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5585866668790844</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서는 주로 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 등이 정원 외 모집단위로 선정되었습니다. 이들 학과는 각각 IT융합부품소재공과대학, ICT공과대학, 상경대학의 계열에 속해 있습니다.
+따라서 가장 많이 모집하는 학과를 단순히 순위로 나열하면 다음과 같습니다:
+1. 스마트호스피탈리티학과
+2. 미래형자동차학과
+3. 소프트웨어융합학과
+이 정보는 주요 변경사항을 바탕으로 추정한 것입니다. 정확한 모집인원은 공식 입시 안내를 통해 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서 지원할 수 없다고 명시된 사항과 생성된 응답에서 지원할 수 있다고 주장하는 것은 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으나, 잘못된 정보로 인해 관련성이 떨어집니다. 원문과의 불일치로 인해 주제와의 관련성이 약해졌습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 응답의 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 의미적으로는 질문에 대한 답변을 시도하고 있으나, 잘못된 정보로 인해 적절하지 않습니다. 원문과의 불일치로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6367031617761523</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 나군 학생부교과(농어촌학생전형)로 지원할 수 있습니다. 하지만 지원 자격은 농어촌 지역에 소재한 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자여야 합니다.
+따라서, 특수목적고등학교 학생이라면 해당 조건을 충족하는 경우 지원이 가능합니다. 만약 자세한 사항이나 추가적인 정보가 필요하다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 점수를 제시하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문이 합격자 평균 성적에 대한 정보가 없다고 명시한 반면, 생성된 응답은 구체적인 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였으나, 생성된 응답은 특정 성적을 제시하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있습니다. 원문이 명시적으로 정보를 제공하지 않는다고 하였으나, 생성된 응답은 구체적인 수치를 제시하고 있어 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문에서 요청한 정보와는 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5686698215584517</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 지원한 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.
+이 데이터는 주어진 정보에서 소프트웨어공학부에 대한 지원과 합격자의 성적을 나타내는데, 이 값은 합격자들의 종합적인 수능 성적을 평균화한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 원문에서 요청한 정보와 생성된 응답의 내용이 전혀 관련이 없으므로 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 상충되는 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.49313954414299</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 영어 등급의 평균은 3.30입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 충원 합격자 발표 및 등록에 대한 정보가 원본 텍스트와 일치하지 않거나 추가된 정보가 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, 추가된 정보로 인해 일관성이 떨어지는 부분이 있습니다. 예를 들어, 최초 합격자 등록 날짜와 충원 합격자 발표 및 등록에 대한 정보가 원본과 다릅니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 합격자 발표 일정에 대한 질문에 적절하게 답변하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 추가 정보로 인해 약간의 흐름이 방해받을 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정확한 정보를 포함하고 있지만, 날짜와 관련된 정보가 다르기 때문에 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 사실성과 일관성에서 약간의 문제가 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 일부 의미가 변형될 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 추가 정보로 인해 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.820976964580117</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+- 최초 합격자 발표 및 등록 : 2024년 2월 2일 금요일 오후 14시
+- 최초 합격자 등록 : 2024년 2월 7일 수요일부터 2월 13일 화요일까지 (은행 마감 시간 내)
+- 충원 합격자 1차 발표 및 등록 : 각각 2024년 2월 14일 수요일 오전 9시와 오후 16시
+- 충원 합격자 2차 발표 및 등록 : 각각 2024년 2월 15일 목요일 오전 9시와 오후 16시
+- 충원 합격자 3차 이후 발표 및 등록 : 개별 전화 통보를 통해 안내되며, 2024년 2월 15일 목요일부터 2월 20일 화요일까지 (오후 18시까지)
+각 합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 날짜를 명시한 원문과 상반된 내용을 포함하고 있습니다. 원문에서는 면접고사 일정이 2024년 1월 20일이라고 명확히 언급하고 있지만, 생성된 응답은 구체적인 날짜가 포함되어 있지 않다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원문은 특정 날짜를 제공하는 반면, 생성된 응답은 그 날짜를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 일반적인 정보는 포함하고 있지만, 원문에서 요구하는 구체적인 날짜에 대한 정보가 부족하여 관련성이 낮습니다. 원문에 대한 직접적인 답변이 아닌 일반적인 설명으로 흐르고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 일부 문장은 어색하게 구성되어 있어 읽기 어려운 부분이 있습니다. 특히, 중간에 다른 언어가 섞여 있어 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보가 혼합되어 있어 일관된 논리적 흐름이 부족합니다. 원문과의 연결이 약하고, 주제가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있으며, 면접 일정에 대한 잘못된 해석을 포함하고 있습니다. 원문에서 명시된 날짜를 무시하고 일반적인 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 두드러지며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 요구하는 구체적인 정보 대신 일반적인 설명을 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 어느 정도 이해할 수 있지만, 중간에 다른 언어가 섞여 있어 혼란을 줄 수 있습니다. 전반적으로 명확하지 않은 부분이 있어 이해하기 어려운 요소가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4450182134544193</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정에 대한 구체적인 날짜와 시간이 포함되어 있지 않습니다. 면접일정은 일반적으로 수능 이후에 이루어지며, 정확한 날짜와 시간은 나군官方网站的回复应基于提供的上下文，如果提供的信息中没有具体日期，则用韩语回答相关流程而不提及具体日期。以下是根据提供的上下文生成的韩语回答：
+면접일정은 일반적으로 수능 이후에 이루어집니다. 정확한 날짜와 시간은 나군 입학사정관 홈페이지에서 확인하실 수 있습니다. 면접 일정이 공지되면, 해당 페이지를 통해 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도에 한의예과의 최저학력기준 정보가 제공되지 않았습니다."라는 표현은 약간의 해석이 필요합니다. 원문과의 차이가 있지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "정보가 제공되지 않았습니다."라는 표현은 원문에서의 "최저학력 기준이 없습니다."와는 약간의 차이가 있습니다. 따라서 일관성 점수는 중간 정도로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 깊으며, 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서의 사실을 잘 반영하고 있지만, "정보가 제공되지 않았습니다."라는 표현이 원문과의 정확한 일치를 방해합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 약간의 해석 차이가 있어 완벽한 일치는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원문과의 차이로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5890447327925563</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도에 한의예과의 최저학력기준 정보가 제공되지 않았습니다. 더 자세한 정보를 얻으려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 명확히 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5588560237427966</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제시된 정보에 따르면, 모든 정시 전형의 경우 수능 최저학력 기준이 없습니다. 각 전형별로 수능 비율이 100%로 설정되어 있으며, 수능 최저학력 기준이 없음을 확인할 수 있습니다. 자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 및 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 3차 이후의 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 3차 이후 발표 일정이 구체적으로 명시되어 있으나, 생성된 응답에서는 "개별 전화 통보로 이루어집니다"라는 내용이 추가되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 반영하고 있지만, 3차 이후 발표 일정에 대한 설명이 원본과 일치하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 3차 이후 일정에 대한 설명이 원본과 다르기 때문에 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 1차 및 2차 발표 일정은 정확하지만, 3차 이후 일정에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 3차 이후 일정에 대한 부정확성으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으나, 3차 이후 일정에 대한 설명이 부적절하여 점수가 다소 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.909970501892838</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다.
+1차 충원합격자 발표는 2024년 2월 14일(수) 오전 9시입니다.
+2차 충원합격자 발표는 2024년 2월 15일(목) 오전 9시입니다.
+이후의 일정은 개별 전화 통보로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2차 충원합격자 발표일을 언급하고 있지만, 1차와 3차 이후 발표 일정에 대한 정보는 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 2차 충원합격자 발표일을 언급하고 있지만, 전체 발표 일정과 일치하지 않으며, 1차 발표일과 3차 이후 발표일에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 정보를 제공하고 있어 관련성이 높지만, 전체 일정에 대한 정보가 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 전체 발표 일정에 대한 정보가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일을 정확하게 언급하고 있지만, 다른 발표 일정에 대한 정보가 누락되어 있어 정확성 점수는 중간입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 잘 수행되었지만, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질 점수는 중간입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 전체 발표 일정에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.670048906963725</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 2024년 02월 15일(목) 09:00입니다. 이 정보는 전형일정에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 명시가 없다고 언급하고 있지만, 원문에서는 추가 모집에 대한 구체적인 정보가 제공되고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성 점수를 낮춥니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련이 있지만, 원문에서 제공하는 구체적인 정보에 대한 언급이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 연결성이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정보와 다르며, 사실적으로 부정확한 내용을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원문과의 관련성이 떨어져서 의미 전달이 부족합니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4844217246549546</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 명시가 없습니다. 추가 모집 여부는 대학마다 정해진 것이므로, 해당 대학의 공식 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처와 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 잘 반영하고 있으나, 면접 평가에 대한 구체적인 내용이 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 많지만, 면접 평가에 대한 추가적인 설명이 포함되어 있어 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되지만, 면접 평가에 대한 추가 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있으나, 면접 평가에 대한 구체적인 내용이 원본 텍스트에 없으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 면접 평가에 대한 추가적인 설명이 원본에 없으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 이해도를 저하시킬 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5767688347466396</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 학생부종합전형의 일환으로, 평생교육을 받는 학생들을 대상으로 하는 입학전형입니다. 이 전형에서는 서류평가와 면접평가가 이루어지며, 각각의 비율은 다음과 같습니다:
+- 서류평가: 70%
+- 면접평가: 30%
+서류평가에서 제출해야 할 서류는 고교 졸업(예정)자인 경우 학생부 온라인 제공 동의가 필요하지 않은 학교생활기록부, 검정고시 출신자인 경우 검정고시 합격증서 사본 또는 합격증명서와 검정고시 성적증명서, 외국고교 졸업(예정)자인 경우 공증받은 외국고교 졸업(예정)증명서와 공증받은 외국고교 성적증명서 등이 있습니다.
+면접평가에서는 학업역량과 전공적합성에 대한 질문을 받게 됩니다. 이 때 지원동기, 입학 후의 학업계획, 고교(직장)생활 중 겪었던 어려움과 이를 해결하기 위한 노력 등을 이야기하게 됩니다.
+평생학습자전형은 평생교육을 받는 학생들의 다양한 경력을 인정하고자 하는 전형으로서, 서류평가와 면접평가를 통해 지원자의 역량을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 세부사항을 제공하고 있지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 핵심 정보를 완전히 무시하고 있습니다. 따라서 사실성 점수는 1로 평가됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 지원자격과는 전혀 다른 내용이 포함되어 있어 일관성이 없습니다. 따라서 일관성 점수는 1로 평가됩니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 지원자격에 대한 정보가 아닌 다른 세부사항을 나열하고 있습니다. 따라서 관련성 점수는 1로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 문장 구조가 다소 복잡할 수 있습니다. 따라서 유창성 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 따라서 일관성 점수는 2로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 따라서 다차원 품질 점수는 1로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 1로 평가됩니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란스러울 수 있습니다. 따라서 이해 가능성 점수는 3으로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6749598524026688</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형 지원자격에 대한 세부사항을 정리하면 다음과 같습니다:
+1. 산업체 적용범위:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. 지원 가능한 고교 유형:
+   - 일반고
+   - 자율고
+   - 과학고, 국제고, 외국어고 (특수목적고의 경우)
+   - 예술고, 체육고 (특수목적고의 경우)
+   - 마이스터고 (특수목적고의 경우)
+   - 특성화고 (특성(직업) 또는 특성(대안))
+   - 영재학교
+   - 학력인정고
+   - 방송통신고
+   - 각종학교
+   - 검정고시
+   - 외국고
+이러한 지원 자격을 갖추면 평생학습자전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 체육학과의 실기종목과 배점에 대한 정보는 사실과 다를 수 있습니다. 원본 텍스트의 핵심 정보를 무시하고 다른 내용을 제공하고 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사에 대한 정보가 상충합니다. 원본 텍스트는 입실시간과 대기실에 대한 정보만을 제공하고 있는데, 생성된 응답은 체육학과의 실기종목에 대한 정보로 대체하고 있습니다.
+3. Relevance Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 체육학과의 실기종목에 대한 정보로 전환되어 있습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 체육학과의 실기종목에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보는 명확하지만, 주제와의 연관성이 부족합니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 핵심 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 다른 주제를 다루고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다. 내용이 명확하긴 하지만, 주제와의 연결이 없기 때문에 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4202475055109886</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>실기고사는 체육학과에서 진행됩니다. 체육학과의 실기종목은 제자리 멀리뛰기, 메디신볼 던지기, Z-런 중 하나입니다. 각 종목별 배점은 다음과 같습니다:
+1. 제자리 멀리뛰기는 240점(24%)입니다.
+2. 메디신볼 던지는 230점(23%)입니다.
+3. Z-런은 230점(23%)입니다.
+따라서 실기고사는 체육학과에서 해당 종목에 따라 준비하고 응시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 체육학과의 실기고사 종목에 대한 정보만 제공하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 다른 주제로 전환된 것으로, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 언급되지 않고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 체육학과의 실기고사 종목에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간과는 관련이 적습니다. 주제와의 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사 종목에 대한 정보를 일관되게 제시하고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2044284513556329</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 모집단위에 따라 선택할 수 있는 종목이 다릅니다.
+1. **메디신볼 던지기**는 체육학과에서 실시됩니다.
+2. **제자리 멀리뛰기**도 체육학과에서 실시되며, 이는 시각디자인/산업디자인/공예디자인의 기초디자인 종목에 비해 다른 모집단위에서 치르는 종목입니다.
+3. **Z-런**은 또한 체육학과에서 실시됩니다.
+따라서, 체육학과를 지원하는 경우 메디신볼 던지기 또는 Z-런 중 하나를 치르게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받는다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보가 일부 포함되어 있지만, 주된 내용인 전화 통보에 대한 잘못된 정보로 인해 전체적으로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 잘못되어 있습니다. 전화 통보가 이루어진다고 하는 부분은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6285932166947088</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 이 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+만약 자세한 내용이 궁금하시다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과에 대한 정보가 없다는 점을 언급하고 있으며, 관련 정보를 확인할 수 있는 웹사이트를 제공하고 있습니다. 그러나 "수시모집 결과"에 대한 구체적인 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 경찰행정학과에 대한 정보가 없음을 전달하고 있습니다. 다만, "각 학과의 수시모집 결과"라는 표현이 원본의 내용과 약간의 차이를 보입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 필요한 정보를 찾기 위한 웹사이트를 제시하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 약간의 중복된 표현이 있어 완전한 일관성에는 미치지 못합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으나, "수시모집 결과"에 대한 구체적인 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 약간의 정확성과 일관성 부족으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 다만, 약간의 의미 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7410083856117965</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경찰행정학과에 대한 내용은 없습니다. 경찰행정학과의 관련 정보를 찾으려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보세요. 해당 사이트에서는 각 학과의 수시모집 결과와 같은 최신 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능하다고 주장하고 있지만, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있는데, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 질문에 대한 직접적인 답변이 아닙니다. 원문이 명확한 부정적인 답변을 제공하는 반면, 생성된 응답은 여러 전형에 대한 정보를 제공하여 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 주제를 유지하지 못합니다. 정보가 분산되어 있어 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 원문이 전달하고자 하는 메시지와 상반된 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5090370847042585</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시에서 수능을 응시하지 않아도 일부 전형에서는 지원이 가능합니다. 예를 들어, 농어촌학생전형과 평생학습자전형, 성인학습자전형, 재직자전형인 경우 수능 응시 여부에 관계없이 지원할 수 있습니다.
+특히, 농어촌학생전형의 경우 6년 과정이나 12년 과정에 따라 지원 자격이 다르며, 서류 제출 내용도 다릅니다. 따라서 해당 전형의 구체적인 지원 자격과 제출 서류를 확인해야 합니다.
+또한, 평생학습자전형, 성인학습자전형, 재직자전형은 일반적으로 수능 응시 여부에 관계없이 지원이 가능합니다. 하지만 이들 전형의 경우 각각의 전형명과 모집단위, 모집인원 등에 따라 지원 자격과 서류 제출 내용이 다를 수 있으므로, 정확한 정보는 해당 대학의 웹사이트나 입시 안내서에서 확인해야 합니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 대학 입시 관련 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 정시 지원 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "고교유형별 지원자격"에 대한 구체적인 내용을 포함하지 않고 있습니다. 또한, 정시 모집 요건을 확인해야 한다는 점은 사실이지만, 원본 텍스트의 핵심 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 정시 지원 가능성에 대한 구체적인 조건을 명확히 하지 않고 있습니다. 원본 텍스트는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 특정 전형에 대한 언급으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 정시 지원에 대한 일반적인 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 지원 가능성을 언급하고 있지만, 원본 텍스트의 구체적인 조건을 정확히 반영하지 못하고 있습니다. 따라서 정확성 점수는 중간 수준으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성과 일관성에서 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 원본 텍스트의 구체적인 조건을 충분히 반영하지 못해 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5899643737777812</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>정시 모집에 지원하려면 해당 대학의 정시 모집 요건을 확인해야 합니다. 주어진 정보로는 정확히 어떤 대학을 가리키는지 명시되어 있지 않아, 일반적인 경우를 설명드리겠습니다.
+일반적으로 고등학교 졸업 후 10년이 지났다면, 해당 학생은 이미 성인으로 분류되며, 평생학습자 또는 재직자의 자격을 갖추게 됩니다. 따라서 정시 모집에 지원하는 대신, 학생부종합전형이나 다른 특별전형을 통해 지원할 수 있습니다.
+특히 나군의 경우, 학생부종합(평생학습자전형) 또는 재직자전형에서 지원 자격이 주어지므로, 해당 전형에 지원하는 것이 적절할 수 있습니다. 
+만약 특정 대학이나 전형에 대한 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나, 해당 대학의 입학처 웹사이트를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7816203893707542</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(목) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8490548838361595</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지, 마감 시간은 각 날짜별로 오후 6시까지입니다. 원서 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출 (필요한 경우)**: 2024년 1월 3일(수)부터 12일(금)까지, 마감 시간은 오후 5시까지입니다. 서류 제출 방법은 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 직접 우편으로 보내는 것입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)입니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 충원 합격자 발표 및 등록 (1차): 2024년 2월 14일(수) 오전 9시입니다. 
+   - 충원 합격자 발표 및 등록 (2차): 2024년 2월 15일(목) 오전 9시부터 오후 4시까지입니다.
+   - 충원 합격자 발표 및 등록 (3차 이후): 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지, 개별 전화 통보를 통해 안내됩니다.
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학 안내 홈페이지에서 확인하시기 바랍니다. 필요하신 경우 https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 미응시자와 관련된 전형에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 원본과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자에 대한 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 그럼에도 불구하고 문장 자체는 이해하기 쉽습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6720328212395333</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형이 있습니다. 주요 변경사항을 살펴보면, 학생부종합 평가전형에서 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 지원할 수 있습니다. 이는 수능 미응시자도 지원이 가능한 전형 중 하나입니다.
+따라서, 수능 미응시자도 지원 가능하며, 2024학년도 동의대학교 정시모집에서는 학생부종합(성인학습자(정원내)전형)을 통해 지원할 수 있습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도에 대한 정보가 제공되지 않았다고 언급했지만, 원본 텍스트에서는 전년도 전자공학과의 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전년도에 대한 정보가 없다는 점에서 약간의 관련성이 떨어집니다. 그러나 전자공학과의 충원 합격에 대한 질문에 답변하고 있으므로 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하는 데 어려움이 있습니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 전년도에 대한 정보를 잘못 해석하고 있으며, 원본 텍스트의 사실과 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.6882523339410889</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터에서는 전자공학과의 충원 합격이 3차까지 이루어졌습니다. 그러나 전년도에 대한 정보가 제공되지 않았기 때문에, 전년도에 전자공학과에서 충원 합격이 몇 차까지 이루어졌는지 정확히 알 수 없습니다. 더 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 전화번호를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 전화번호를 제공하는 대신, 관련 없는 정보를 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정확한 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 관련 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6609798205390304</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要该信息，可以访问以下网站以获取最新数据：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 내용을 왜곡하고 있습니다. 원본에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답은 학생이 홈페이지에서 합격 사실을 확인할 수 있다고 언급하고 있습니다. 이는 원본의 내용을 잘못 해석한 것입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 전화 연락이 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 다른 방법으로 합격 사실을 확인할 수 있다고 주장하고 있어 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련이 있지만, 주제에서 벗어난 부분이 있습니다. 원본은 전화 연락의 중요성을 강조하고 있지만, 생성된 응답은 홈페이지 조회와 같은 다른 방법에 초점을 맞추고 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본의 핵심 메시지와는 다소 동떨어져 있습니다. 전화 연락의 중요성을 간과하고 다른 방법에 대한 설명으로 흐름이 약간 어색해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본의 사실과 크게 다릅니다. 원본에서는 전화 연락이 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 다른 방법을 제시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원본과의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 원본의 핵심 메시지와는 다소 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5109792679681451</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원 합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 사실을 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 직접 수령 가능하며, 등록장소는 학교 지정은행으로 등록금을 납부해야 합니다.
+만약 이러한 방법들도 통하지 않는다면, 입학관리팀에 연락하여 상황을 설명하고 처리 방법을 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 6년 과정과 12년 과정에 따른 서류를 구분하여 설명하고 있습니다. 그러나 '부모가 사망한 경우'와 '부모가 이혼한 경우'에 대한 세부 사항이 약간 간략하게 설명되어 있어, 원본 텍스트의 모든 세부 사항을 완전히 포함하지는 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류를 나열하고 있으며, 정보의 흐름이 자연스럽습니다. 다만, 일부 세부 사항이 생략되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 모든 정보를 적절히 다루고 있습니다. 주제에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 과정에 따른 서류를 명확하게 구분하고 있습니다. 그러나 약간의 추가적인 연결 문구가 있으면 더 좋을 것 같습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 서류 제출에 대한 정확한 정보를 제공합니다. 그러나 일부 세부 사항이 생략되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항의 생략으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 약간의 세부 사항이 부족하여 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7174500416280288</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 다르게 제출해야 할 서류가 있습니다.
+### 6년 과정
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+### 12년 과정
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 부모가 사망한 경우는 사망 증명서를 추가로 제출해야 합니다. 또한, 부모가 이혼한 경우에는 친권자의 혼인관계증명서와 본인의 기본증명서를 추가로 제출해야 합니다.
+위 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 서류를 정확하게 나열하고 있으며, 원본 텍스트의 주요 내용을 잘 반영하고 있습니다. 그러나 '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류에 대한 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정' 서류에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, '6년과정' 서류에 대한 언급이 원본과 다르므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8097851662259825</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정으로 지원 시 다음과 같은 서류가 필요합니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 현재 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "이전 학년도에는 해당 전형이 있었지만"이라는 부분은 명확한 정보가 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 기회균등 전형이 없다는 점에서 일관성을 유지하고 있지만, 이전 학년도에 전형이 있었다는 언급은 원본 텍스트와의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "없어보입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "이전 학년도에는 해당 전형이 있었지만" 부분이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전형의 현재 상태에 대한 정확한 정보를 제공하지만, 이전 학년도에 대한 언급이 명확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 이전 학년도에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 어색하게 느껴질 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.7164867278369613</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 없습니다. 이전 학년도에는 해당 전형이 있었지만, 현재는 없어보입니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5등급이 절사되어 3등급으로 처리된다고 주장하고 있지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 여부에 대한 정보가 없다는 점을 무시하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 내용을 다루고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 절사 여부에 대한 불확실성을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 예시를 통해 설명이 명확하게 이루어졌습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락을 무시하고 잘못된 정보를 제공하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 예시를 통해 설명이 잘 이루어졌습니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6098959597090284</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목 평균산출을 할 때 2.5 등급은 3등급으로 반올림하여 계산합니다.
+만약 4개의 사탐 과목 중 두 과목의 등급이 나왔다면, 그 두 과목의 등급을 평균하여 처리합니다. 이때 절사가 적용되므로 2.5는 3등급으로 반올림됩니다.
+예를 들어:
+- 과목1: 2등급
+- 과목2: 3등급
+평균 = (2 + 3) / 2 = 2.5 등급 → 절사하여 3등급으로 처리
+따라서, 2.5 등급은 3등급으로 반올림되어 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 발표 일정에 대한 정보가 부정확합니다. 첫 번째 발표일이 2024년 2월 15일로 잘못 기재되어 있으며, 두 번째 발표에 대한 정보도 잘못되었습니다. 원본 텍스트에 따르면 첫 번째 발표는 2024년 2월 14일이고, 두 번째 발표는 2024년 2월 15일입니다. 
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 발표 일정이 다르게 제시되어 있으며, 특히 첫 번째 발표일과 두 번째 발표일이 서로 맞지 않습니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 정시 충원 합격자 발표에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 발표 일정의 부정확성으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 발표 일정에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 발표 일정의 부정확성으로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 발표 일정의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7917569642819644</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 첫 번째 발표는 2024년 2월 15일(목) 오전 9시에 있으며, 두 번째 발표는 같은 날 오후 9시부터 시작합니다. 마지막으로 세 번째 발표는 2024년 2월 20일(화)까지 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 수능 성적 반영 비율과 모집 인원에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 점수와 비교할 때, 수능 성적이 4.6이라는 점수에 대한 해석이 다소 부정확합니다. 원본 텍스트는 충원 합격 가능성을 언급했지만, 생성된 응답은 추가 합격 가능성에 대한 조건을 더 구체적으로 설명하고 있어 사실과 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 동점자 처리 기준과 같은 추가적인 세부사항이 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 평균 점수와 비교할 때, 수능 성적이 4.6인 경우의 해석이 다소 다르게 나타나고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과에 대한 정보와 수능 성적에 대한 질문에 적절하게 답변하고 있습니다. 그러나 원본 텍스트의 주요 내용인 평균 점수와 충원 합격 가능성에 대한 정보가 충분히 강조되지 않아 약간의 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 계산과 관련된 정보가 포함되어 있지만, 원본 텍스트의 평균 점수와 비교할 때 정확성이 떨어질 수 있습니다. 특히, 수능 성적이 4.6이라는 점수에 대한 해석이 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 세부사항이 원본 텍스트와 다르게 해석될 수 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6004081523692023</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, e비즈니스학과의 경우 모집단위가 상경대학이며, 계열은 인문사회입니다. 수능 성적 반영 비율은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%입니다.
+만약 e비즈니스학과에 지원하고 수능 성적이 4.6이라면, 이는 국어, 수학, 영어, 탐구 영역 모두에서 180점 만점을 받은 것으로 추정할 수 있습니다 (4.6 * 180 = 828 점). 
+이 경우, e비즈니스학과의 모집인원이 10명이고, 동점자 처리 기준이 순위 3이며, 동점자 처리 기준은 서류평가 전공적합성 영역 성적 상위자라면, 수능 성적이 4.6인 학생도 추가로 합격할 가능성이 있습니다.
+하지만, 정확한 합격 여부는 해당 대학의 최종 합격선과 지원자의 전체 평가 결과에 따라 결정되므로, 공식적인 합격선 발표를 기다리는 것이 좋습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급(영어 3.66, 수능 4개 영역 4.53)과 관련된 정보는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제 기준에 대해 설명하고 있지만, 원본 텍스트의 내용과는 다소 일치하지 않는 부분이 있습니다. 예를 들어, 정시 등급 5.3이 B+ 등급으로 해석되지만, 원본 텍스트에서는 합격 가능성이 낮다고 언급하고 있습니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제와 관련된 정보를 제공하여 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄러워 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 입학사정관제에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 잘 전달하고 있지만, 일부 내용이 원본 텍스트의 핵심과는 다소 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉽게 작성되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7004834808572653</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 입학사정관제 평가 기준을 확인해보겠습니다. 
+1. **학생부 교과성적**:
+   - 반영학기: 고교 졸업(예정)자 1학년 1학기~3학년 1학기
+   - 산출방법: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과 석차등급 평균
+2. **성적 기준**:
+   - 정시 등급 5.3은 중등등급으로, 이는 학교에서 주로 B+ 등급을 의미합니다.
+   - e비즈니스학과의 입학사정관제에서는 국어, 수학, 영어, 사회, 과학, 한국사 교과 석차등급 평균이 반영됩니다.
+3. **입학사정관제 평가 기준**:
+   - 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. **성적 평균**:
+   - 정시 등급 5.3은 중등등급으로, 이는 B+ 등급을 의미합니다.
+   - e비즈니스학과의 입학사정관제에서는 국어, 수학, 영어, 사회, 과학, 한국사 교과 석차등급 평균이 반영됩니다.
+5. **합격 가능성**:
+   - 정시 등급 5.3은 중등등급으로, 이는 학교에서 주로 B+ 등급을 의미합니다.
+   - e비즈니스학과의 입학사정관제에서는 국어, 수학, 영어, 사회, 과학, 한국사 교과 석차등급 평균이 반영됩니다.
+따라서 정시 등급 5.3은 중등등급으로 B+ 등급을 의미하므로, e비즈니스학과의 입학사정관제 기준에 충족할 수 있습니다. 하지만 최종 합격 가능성은 개인의 전체 성적 평균과 함께 면접 결과 등을 고려해야 하며, 경쟁률과 입학사정관제의 총점 기준 등 다양한 요인을 고려해야 합니다.
+따라서 정시 등급 5.3이면 최초 합격 가능성은 있을 수 있지만 확실한 것은 아닙니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시거나, 온라인 커뮤니티에서 입학사정관제에 대한 정보를 확인해보시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하거나, 동의대학교 입학처로 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 언급하고 있지만, 원문에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 핵심 사실을 간과하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문은 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 하여 모호한 입장을 취하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성을 판단하기 위한 요소들을 제시하고 있어 관련성이 높습니다. 그러나 원문에서 제공하는 구체적인 정보와는 다소 거리가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 약해 전체적인 일관성은 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 중요한 사실을 무시하고 있으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문의 의미를 정확히 반영하지 못하고 있어 의미적 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 연결이 약해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.6205337610979341</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생이 e비즈니스학 전공에 예비합격 가능한지 판단하기 위해서는 몇 가지 요소를 고려해야 합니다. 
+1. **전형 유형**: e비즈니스학 전공을 지원하는 전형 유형(예: 나군, 가군 등)이 무엇인지 확인해야 합니다.
+2. **성적 및 평균 등급**: 국어, 수학, 영어, 한국사, 사회 등의 과목별 성적과 평균 등급을 확인해야 합니다.
+3. **서류 제출**: 서류 제출 유형(예: 학생부교과, 학생부종합 등)에 따른 요구 사항을 충족하고 있는지 확인해야 합니다.
+위의 정보를 바탕으로 판단하기 위해서는 구체적인 전형 유형과 지원 자격, 평균 등급 등을 확인해야 합니다. 만약 위의 정보가 부족하다면, 공고문이나 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하여 자세한 내용을 확인해 보세요.
+특히, e비즈니스학 전공에 대한 모집단위와 지원 자격 등이 명확하게 기재되어 있는 공고문이나 입학 안내 홈페이지에서 가장 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.44라는 성적이 합격 가능성이 있다고 언급하고 있지만, 원문에서는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 따라서 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 하였으나, 생성된 응답은 합격 가능성이 있다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 관련된 내용을 다루고 있으며, 추가적인 조언을 제공하고 있습니다. 그러나 원문에서 강조한 합격 가능성에 대한 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안 사항이 명확하게 나열되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있어 정확성에서 일부 문제가 있습니다. 특히, 합격 가능성에 대한 주장은 원문과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하고 있으며, 제안 사항도 적절합니다. 그러나 원문과의 사실관계 불일치로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 제안 사항이 명확하게 제시되어 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5632093006012955</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과의 정시 모집인원에서 나군 일반학생 모집인원(22명) 중 한 명으로 봤을 때, 합격 가능성이 있습니다. 그러나 최종 합격 여부는 입학사정관이 평가하는 학생부 교과 성적 외에도 다양한 요소를 고려하기 때문에 확실한 것은 아닙니다.
+추천 드리는 사항은 다음과 같습니다:
+1. 동의대학교 간호학과의 학생부 종합전형에 지원해 보세요.
+2. 추가로 자기소개서와 추천서 등을 준비하여 입학사정관이 평가하는 요인들을 강화하십시오.
+3. 동의대학교의 홈페이지를 확인하여 최신 정보와 지원 절차를 확인하십시오.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속해 보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하지 않고, 대신 모집 인원과 경쟁률, 평균 수능 점수에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 정보를 제공하지만, 간호학과의 평균 등급에 대한 언급이 없고, 수능 점수 변환 방법에 대한 설명이 추가되어 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 관련된 정보를 제공하고 있으며, 동의대학교 간호학과에 대한 정보도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6194764437724639</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집 인원은 22명이며, 지원 인원은 145명으로 경쟁률이 높습니다. 평균 수능 점수는 353.48이고, 표준 편차는 4.66입니다.
+당신의 성적(2.52)은 수능 점수로 변환되어야 합니다. 일반적으로 수능 점수와 학생부 종합 평가 점수가 함께 고려되며, 각 항목의 가중치는 전형에 따라 다릅니다.
+현재 제공된 정보만으로는 정확한 예측이 어렵습니다. 성적 변환 방법과 학생부 종합 평가 점수를 포함하여 전체적인 평가 결과를 확인해야 합니다. 
+추천되는 조치:
+1. 수능 점수 변환 방법을 확인하세요.
+2. 학생부 종합 평가 점수를 확인하세요.
+3. 동의대학교 입학처에 문의하여 정확한 예측을 받으세요.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보를 포함하고 있으며, 3.7의 정시 성적이 낮다는 점을 언급하고 있습니다. 그러나 "입학사정관 제도나 특별전형"에 대한 언급은 다소 일반적이며, 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 정시 성적이 낮다는 점을 강조하고 있습니다. 다만, 추가적인 정보가 필요하다는 점에서 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가 정보 요청 부분에서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 3.7의 성적이 낮다는 점을 정확히 전달하고 있습니다. 그러나 구체적인 수치나 기준에 대한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 부족함이 느껴집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 일반적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6941634363450476</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적만으로 간호학과에 합격하기는 어렵습니다. 간호학과는 보통 높은 평균 성적을 요구하며, 입학사정관 제도나 특별전형 등이 있어도 일반적으로 높은 성적이 필요합니다.
+하지만 정확한 답변을 위해서는 다음과 같은 정보가 더 필요합니다:
+1. 2024년 간호학과의 최저학력기준 및 평균성적
+2. 해당 대학에서 적용하는 전형별 학업역량 평가 기준
+위와 같이 구체적인 정보를 가지고 판단해야 합니다. 만약 더 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 대학 입학처에 문의하시는 것이 좋습니다.
+또한, 간호학과 외에도 관심 있는 다른 전공이 있다면, 그 전공들의 합격 가능성을 함께 고려해 보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 성적 기준에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용과 대체로 일치합니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 성적(영어 등급 평균 2.34, 수능 4개 영역 등급 평균 3.37)에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 학생부 교과 성적 반영 방식에 대한 추가 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 정시 성적 기준에 대한 명확한 언급이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 동의대학교 간호학과의 정시 모집요강에 대한 구체적인 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 길어질 수 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 구체적인 성적 기준에 대한 정보가 부족하여 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어지면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.59154024666751</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집요강을 확인해보겠습니다.
+1. **정시 성적 기준**: 정확한 정시 성적 기준은 공지된 정보에서 확인해야 합니다. 일반적으로 대학마다 합격기준이 다르므로, 동의대학교 간호학과의 정시 합격기준을 확인해보세요.
+2. **성적 반영 방식**: 2024학년도 동의대학교는 학생부 교과 성적을 반영하는 전형이 있습니다. 학생부 교과 성적은 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 등 전 과목 석차등급 평균으로 산출됩니다.
+3. **성적 반영 기준**: 2024학년도 동의대학교 간호학과의 정시 모집요강에 따르면 학생부 교과 성적은 합격기준이 될 수 있습니다. 하지만, 정확한 합격기준 점수는 공지된 정보에서 확인해야 합니다.
+4. **합격 가능성**: 현재 제공된 정보로는 2023학년도의 학생부 교과 성적 기준을 참고할 수 있지만, 2024학년도의 정확한 합격기준 점수를 확인해야 합니다. 예를 들어, 2023학년도의 학생부 교과 성적 기준이 2.58 이상이라면, 2.58이라는 성적은 합격 가능성에 영향을 줄 수 있습니다.
+**추천 사항**: 
+- 동의대학교 간호학과의 2024학년도 정시 모집요강을 확인하세요.
+- 학생부 교과 성적 기준, 면접 등 전형 요소를 종합적으로 고려해보세요.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do에서 공지사항이나 모집요강을 확인하시거나, 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 정보는 포함하고 있지만, 모집인원과 전형방법에 대한 정보는 원본 텍스트에 명시되어 있지 않은 내용입니다. 따라서 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(모집인원, 전형방법 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 추가적인 정보를 제공하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 추가적인 정보가 포함되어 있어 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 예비 7번의 합격 가능성에 대한 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 예비 7번의 합격 가능성에 대한 질문에 대한 답변이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 정보가 부정확합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 의미적으로 적절하지 않을 수 있습니다. 예비 7번의 합격 가능성에 대한 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 양이 많아 혼란을 줄 수 있습니다. 핵심 정보가 명확히 전달되지 않아 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6189085377681199</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨군요. 현재 게임공학과의 모집인원은 28명이며, 전형방법은 가군 수능(일반학생전형)입니다.
+가군 수능(일반학생전형)에서는 수능 점수만을 기준으로 하며, 동점자 처리기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자입니다. 따라서 수능 성적이 중요합니다.
+또한, 게임공학과는 공과대학에 속해 있어 실기고사는 진행되지 않습니다. 동점자 처리 시 수능 점수가 높은 순으로 선발되므로, 자신의 수능 성적을 잘 준비하시길 바랍니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트를 방문하여 확인해 보시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 점수 4.16이 평균보다 낮다고 주장하지만, 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 4.16이 합격 가능성이 높다고 언급했으나, 생성된 응답에서는 낮은 경쟁률로 인해 합격 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 왜곡하여 전달하고 있습니다. 그럼에도 불구하고, 지원 방법에 대한 추가 정보를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 수능 점수에 대한 잘못된 해석이 포함되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 관련성은 어느 정도 있지만, 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6709511423321513</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 지원한다면, 현재 제공된 데이터로는 충분한 경쟁률을 이기기 어렵다고 판단됩니다.
+게임공학과의 경우 모집 인원이 3명이고 지원 인원이 16명으로 경쟁률이 5.33입니다. 평균 수능 점수는 446.69이며, 표준 편차가 8.06입니다. 이와 비교해보면 4.16이라는 점수는 평균보다 상당히 낮은 수치로, 경쟁률이 높고 지원 인원도 많은 만큼 추가 합격 가능성은 매우 낮다고 보여집니다.
+하지만, 정시 전형에서 합격 가능성을 높이기 위해서는 다음과 같은 방법들을 고려해볼 수 있습니다:
+1. **학생부 종합 평가**:
+   - 학생부 종합 평가에서는 다양한 요소를 고려하므로, 학교생활기록부와 면접에서 좋은 성적을 보여줄 수 있다면 추가 합격 가능성은 높아질 수 있습니다.
+2. **서류평가**:
+   - 서류평가 영역 중 공동체역량, 학업역량, 전공적합성 등에서 우수한 점수를 받는 것이 중요합니다.
+3. **면접평가**:
+   - 면접에서는 지원동기와 학업계획, 학업역량, 전공적합성 등을 잘 설명하고, 자신의 장점을 강조하는 것이 필요합니다.
+4. **추가 지원**:
+   - 다른 대학이나 전공에 추가로 지원하여 보완할 수 있습니다.
+현재의 점수와 경쟁률을 고려하면, 게임공학과에서 추가 합격 가능성은 낮지만, 다양한 평가 요소를 잘 준비하고 지원한다면 합격 가능성을 높일 수 있을 것입니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 평균 성적에 대한 정보는 언급되지 않았고, 이는 사실적 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 구체적인 성적 기준에 대한 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 평균 성적에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 구체적인 정보와는 다소 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하지 않으며, 원본 텍스트의 구체적인 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5855006578970454</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면 정시 모집의 성적 기준을 충족해야 합니다. 하지만 주어진 정보만으로는 해당 학과의 정확한 최저성적 기준이 무엇인지 알 수 없습니다. 일반적으로 경영정보학과의 정시 모집에서 요구하는 성적 기준은 각 대학에서 다르게 설정할 수 있습니다.
+따라서, 경영정보학과의 정시 모집에 대한 최신 성적 기준을 확인하기 위해서는 동의대학교의 공식 웹사이트를 참조하거나 입학처와 직접 문의해야 합니다. 해당 정보는 매년 변경될 수 있으므로 가장 최신의 정보를 얻기 위해 공식 웹사이트나 입학처에 문의하는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 확정적인 답변을 제공하지 않으며, 성적 외에도 다양한 요소가 고려된다고 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 4.2의 성적이 낮다고 명시된 부분을 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2의 성적이 낮다는 점을 명확히 반영하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6281278245204867</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성에 대한 확정적인 답변을 드리기 어렵습니다. 경영정보학과의 정시 합격 기준은 학교마다 다르므로, 해당 학교의 최신 입학규정을 확인해 보시는 것이 좋겠습니다.
+특히, 경영정보학과의 경우 전형별로 다양한 평가 요소를 고려하기 때문에, 성적 외에도 다른 요소들이 합격 가능성에 영향을 미칠 수 있습니다. 예를 들어:
+1. 서류평가에서의 성적 (학생부종합전형 등)
+2. 면접 결과
+3. 특기사항 또는 진로계획
+따라서, 경영정보학과의 정시 합격 가능성을 판단하기 위해서는 해당 학교의 입학규정을 자세히 확인하시거나, 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.
+입학사정관제나 학생부종합전형 등에서는 성적 외에도 다양한 요소가 고려되기 때문에, 단순히 4.2의 성적이 최초등록자로 가능하다고 할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 평가 기준에 대한 일반적인 정보를 제공하고 있지만, 원본 텍스트에서 제시된 구체적인 성적 기준(영어 등급 평균 3.25, 수능 4개 영역 등급 평균 4.31)에 대한 언급이 부족하다. 따라서, 사실성 점수는 4로 평가된다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 합격 가능성에 대한 구체적인 수치를 제공하지 않고 일반적인 조언을 하고 있다. 이로 인해 일관성 점수는 3으로 평가된다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 합격 가능성에 대한 질문에 대한 적절한 정보를 제공하고 있다. 따라서, 관련성 점수는 5로 평가된다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있다. 따라서, 유창성 점수는 4로 평가된다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있다. 그러나 약간의 중복된 정보가 있어 완전한 일관성에는 다소 부족함이 있다. 따라서, 일관성 점수는 4로 평가된다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 구체적인 성적 기준에 대한 언급이 부족하여 정확성 점수는 4로 평가된다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공하고 있다. 따라서, 다차원 품질 점수는 4로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 수치에 대한 언급이 부족하여 의미적 적절성 점수는 4로 평가된다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있다. 따라서, 이해 가능성 점수는 4로 평가된다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5711810218587464</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과 일반학생전형에 대한 자세한 정보는 공개된 자료로 확인이 어렵습니다. 하지만, 전반적으로 경영정보학과의 경우 교과 성적을 중점으로 평가하는 경향이 있습니다.
+현재 제공된 정보만으로 판단하면, 학교별로 다르게 평가기준을 설정할 수 있으므로, 정확한 합격 가능성을 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 동의대학교의 공식 입학 안내 자료를 참고하시거나, 동의대학교 입학처에 직접 문의하여 최신 정보와 정확한 합격 가능성을 확인해보시는 것을 추천드립니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 정보와 관련된 내용을 포함하고 있지만, 제공된 정보는 식생물공학과에 대한 내용으로 바뀌어 있으며, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 바이오응용공학부에 대한 정보에 집중하고 있지만, 생성된 응답은 식생물공학과에 대한 정보로 전환되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제가 바뀌어 있어 직접적인 관련성은 떨어집니다. 바이오응용공학부에 대한 정보가 아닌 식생물공학과에 대한 정보로 전환되었기 때문에 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다르게 해석되고 있어 의미적 적절성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6750908519066781</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 식생물공학과의 경우, 최종 등록자의 경쟁률과 지원 인원 등을 고려해보겠습니다.
+- **바이오응용공학부**는 2024학년도에 다음과 같은 특징을 가집니다:
+  - 모집 단위: 바이오의약공학과, 의생명공학과, 식품공학과
+  - 모집 인원: 총 13명 (각 과별로 분배)
+  - 지원 인원: 총 47명
+- **성적 평균 및 경쟁률**:
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 318.80
+  - 경쟁률: 약 3.65 (47명 지원 인원 / 13명 모집 인원)
+- **성적**:
+  - 성적이 3.33 정도라면, 이는 표준 변환 점수 합의 평균(318.80)에 가까워 보입니다.
+  - 경쟁률이 약 3.65로 비교적 낮은 편이므로, 성적이 비슷한 수준이라면 충분히 가능할 것으로 예상됩니다.
+- **결론**:
+  - 성적이 3.33 정도라면, 바이오응용공학부의 최초 등록자로 지원하는 것은 가능합니다.
+  - 그러나 경쟁률과 지원 인원 등을 고려하면, 성적만으로는 확실한 합격을 보장받기는 어렵습니다.
+따라서 성적이 비슷한 수준이라면 충분히 지원할 수 있지만, 최종 합격 여부는 성적 외에도 면접 결과 등 다양한 요소가 고려되기 때문에, 정확한 예측은 불가능합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+[참고 링크] https://ipsi. deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하고 있지만, 4.4의 등급으로 지원이 가능하다고 언급하며 합격 가능성을 낮게 평가한 원문과는 다소 상충하는 내용을 포함하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하지만, 원문에서 제시한 합격 가능성이 낮다는 점과 일치하지 않습니다. 여러 요소를 고려해야 한다고 하지만, 원문과의 일관성이 부족하여 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 여러 요소를 다루고 있어 원문과 매우 관련성이 높습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요소를 나열하며 논리적으로 연결되어 있지만, 원문과의 일관성 문제로 인해 완전한 일관성을 보이지는 않습니다. 따라서 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 관련된 여러 요소를 언급하지만, 원문에서 제시한 합격 가능성에 대한 정보와 상충하는 부분이 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성 등에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족하여 종합적인 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 적절한 의미를 전달하고 있으나, 원문과의 차이로 인해 완전한 적합성은 부족합니다. 따라서 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6559762274890532</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 확실한 결과를 얻기 위해서는 여러 요소들을 고려해야 합니다.
+1. **성적**: 현재 등급이 4.4로, 방사선학과의 입학 기준을 충족하려면 해당 학과의 최저 성적 기준을 확인해야 합니다. 각 대학별로 정해진 최소 등급 기준이 있으므로, 해당 정보를 먼저 확인하세요.
+2. **전형 요소**: 방사선학과는 일반적으로 실기와 서류 평가가 중요합니다. 따라서 학생부 교과성적 외에도 실기 성적이 요구될 수 있습니다. 이 점을 고려하여 준비해야 합니다.
+3. **면접 및 심층평가**: 많은 경우 면접이나 심층평가가 진행되므로, 관련 질문에 대한 답변을 미리 연습해두세요.
+4. **추천서 및 자기소개서**: 일부 학과에서는 추천서나 자기소개서를 요구하기도 합니다. 이 점도 고려해야 합니다.
+5. **대학별 정보 확인**: 각 대학의 홈페이지에서 방사선학과에 대한 자세한 정보를 확인하세요. 입학 기준, 전형 요소 등이 공지되어 있을 것입니다.
+위와 같은 요소들을 종합적으로 고려하여 지원 계획을 세우시는 것이 좋습니다. 만약 더 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 학생부종합 평가에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(2.8 및 3.82)과 관련된 정보는 포함되어 있지 않다. 따라서, 일부 사실은 정확하지만, 전체적으로 원본 텍스트의 핵심 사실을 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하지만, 원본 텍스트의 내용과는 다소 일치하지 않는다. 원본 텍스트는 2.66이라는 점수가 평균보다 높음을 강조하고 있지만, 생성된 응답은 이 점수가 낮다고 언급하고 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 학생부종합 평가에 대한 정보를 제공하여 관련성을 유지하고 있다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않는다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하지만, 원본 텍스트의 평균 등급에 대한 정확한 정보를 반영하지 않고 있다. 따라서 정확성 점수는 중간 수준으로 평가된다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과와 관련된 주제를 다루고 있으며, 의미적으로 적절하다. 그러나 원본 텍스트의 특정 사실을 반영하지 않아 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.580207229101669</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 정원외 경쟁률을 정확히 알 수 없지만, 전반적으로 방사선학과는 비교적 높은 경쟁률을 보입니다. 현재 제공된 정보만으로 판단하면, 학생부종합 평가 영역 중 '전공적합성' 영역에서 2.66이라는 점수는 상대적으로 낮은 수준입니다.
+이 점수로 인해 정원외 경쟁에서 유리한 위치를 차지하기는 어렵다고 볼 수 있습니다. 그러나, 학생부종합 평가에서는 '공동체역량', '학업역량' 등 다른 영역에서도 좋은 성적을 받았다면, 전체적인 평가는 긍정적으로 작용할 수 있습니다.
+따라서, 2.66이라는 점수만으로는 위험하다고 단정 짓기는 어렵습니다. 중요한 것은 학생부종합 평가 영역에서의 전반적인 성적과 면접 등 다른 요소들입니다. 자세한 정보를 얻기 위해서는 대학 입학처 웹사이트나 관련 문건을 확인하거나, 대학 입학 상담을 받는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 대학에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류와 면접 비율, 평가 항목에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 성적 4.12와의 비교가 부족하고, 합격 가능성에 대한 구체적인 수치나 정보가 부족하여 사실성 점수가 낮아졌다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 서류와 면접 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이로 인해 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과 지원에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용인 평균 성적과 경쟁률에 대한 언급이 부족하여 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있지만, 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 유지하지 못한다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있어 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 고르게 떨어지며, 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질 점수가 낮다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과 완전히 일치하지 않아 약간의 차이가 있다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달된다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5652687655639193</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공 농어촌 전형에 지원하시려면, 서류와 면접 비율을 고려해야 합니다. 나군에서의 경우, 학생부종합(평생학습자전형)은 서류가 70%, 면접이 30%로 반영됩니다.
+1. **서류 평가**: 서류 평가는 학업역량, 공동체역량, 전공적합성 등 여러 영역을 종합적으로 평가합니다. 이 중 학업역량은 학업태도와 성취를 고려하므로, 3.66의 평균 점수는 좋은 평가를 받을 수 있습니다.
+2. **면접 평가**: 면접에서는 지원자의 역량과 적합성을 종합적으로 판단합니다. 이 부분은 개인적인 인터뷰 성격이기 때문에, 준비와 자기소개가 중요합니다.
+3. **전공적합성**: 전공적합성 평가는 지원자가 해당 전공에 대한 열정과 관련된 경험을 얼마나 잘 보여줄 수 있는지 판단합니다. 이 부분에서는 지원자의 활동과 경험을 자세히 서술해야 합니다.
+4. ** 공동체역량**: 공동체역량은 협업능력, 배려 등 사회적 역량을 평가합니다. 이 부분에서도 개인의 경험과 활동을 잘 보여줘야 합니다.
+5. **합격 가능성**: 합격 가능성은 서류평가와 면접 평가를 종합적으로 판단해야 하며, 정확한 예측은 어렵습니다. 하지만 3.66의 평균 점수는 좋은 성적을 받을 수 있으므로, 준비를 철저히 하고 면접에서도 자신감 있게 대답하면 합격 가능성은 높아질 것입니다.
+자세한 정보나 추가 지원 방법이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 합격자에 대한 불확실성을 언급하고 있지만, 원문에서 제공된 특정 학과에 대한 정보는 누락되어 있습니다. 원문에서는 예비 25번 이상이 합격한 학과 목록을 제공하고, 지원한 학과가 그 목록에 포함된다면 합격할 확률이 있다고 명시하고 있습니다. 그러나 생성된 응답은 이러한 정보를 포함하지 않고 일반적인 조언만을 제공합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 예비 25번에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원문은 특정 학과에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 그러한 세부사항을 생략하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문의 주제와 관련이 있지만, 원문에서 제공된 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못합니다. 예비 합격자에 대한 불확실성을 언급하는 것은 관련성이 있지만, 원문에서 제시된 학과 목록과 합격 가능성에 대한 정보가 포함되지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 구체적인 사실을 반영하지 않으며, 예비 합격자에 대한 정보가 부족합니다. 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문에서 제공된 구체적인 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 일반적인 조언을 제공합니다. 그러나 원문에서 제공된 구체적인 정보와는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 연결이 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4945359432897166</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자는 불확실성을 가지고 있습니다. 하지만 아직 최종 합격자 발표가 이루어지지 않았기 때문에, 이 시점에서 부정적으로 판단하기는 어렵습니다. 최종 합격자 발표일까지 기다리시고, 등록금 납부를 마치면 확정될 것입니다. 만약 불합격이 된다면, 입학관리팀에 문의하시거나 공지사항을 확인해보세요. 추가 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 제공된 성적 정보와 관련된 내용도 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부와 관련하여 상충하는 정보를 제공합니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 주제인 경찰행정학과의 성적 추정과는 관련이 적습니다. 법경찰행정학부에 대한 정보는 원본 텍스트와 관련이 없으므로, 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 문제가 있으므로, 플루언시 점수는 높게 평가할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 따라서 중간 정도의 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 법경찰행정학부의 존재 여부에 대한 정보가 잘못되었습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 관련성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 법경찰행정학부에 대한 언급은 원본 텍스트의 주제와 관련이 없으므로 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성과 관련하여 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높게 평가할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7776081068714179</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추정해보겠습니다.
+법학과의 경우, 지원 인원이 40명이고 모집인원이 7명이므로 경쟁률은 5.71입니다. 충원 합격자는 13명이며, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.78이고 표준 편차는 6.84입니다.
+이러한 정보를 바탕으로 추정해보면:
+- **안정권**: 평균보다 약간 낮은 점수를 받으면 안정권에 들 수 있을 것입니다. 예를 들어, 평균 점수인 315.78에서 표준 편차의 약 0.5배 정도 떨어진 점수를 목표로 하면 됩니다. 즉, 대략 306점 정도가 안정권에 해당할 수 있습니다.
+- **문 닫고 들어갈 수 있는 점수**: 충원 합격자 중에서 가장 낮은 점수가 문을 닫고 들어갈 수 있을 것입니다. 이 경우, 평균 점수인 315.78에서 표준 편차의 약 2배 정도 떨어진 점수를 목표로 하면 됩니다. 즉, 대략 294점 정도가 문을 닫고 들어갈 수 있을 것입니다.
+따라서, 법경찰행정학부에 정시로 들어갈려면 평균 성적이 **306점** 정도 받으면 안정권에 들 수 있고, **294점** 정도를 받으면 문을 닫고 들어갈 수 있을 것으로 추정됩니다. 실제 점수는 개인의 성적과 경쟁률 변동 등 다양한 요인에 따라 달라질 수 있으므로, 정확한 예상 점수는 입시 전문가와 상담하는 것이 좋습니다.
+더 자세한 정보를 얻고 싶으시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정보와는 일관성이 부족합니다. 두 학과의 정보가 혼합되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 관련된 정보를 제공하여 질문에 어느 정도 관련이 있지만, 원본 텍스트의 아동학과에 대한 정보와는 직접적인 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정확한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정보는 누락되어 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5511549398513306</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경쟁률, 충원 합격자 수 등을 확인해보겠습니다.
+보육가정상담학과의 경우:
+- 모집 인원은 11명입니다.
+- 지원 인원은 88명이었습니다.
+- 경쟁률은 8.00입니다.
+- 충원 합격자는 12명이었습니다.
+현재 제공된 정보만으로는 정시 산출 등급이 5.33인 경우에 대한 확실한 예측을 내리기 어렵습니다. 하지만, 이전의 경쟁률과 충원 합격자 수를 고려하면, 평균적인 경쟁률은 높고 충원 합격자는 많으므로, 5.33이라는 등급만으로는 합격하기 어려울 것으로 보입니다.
+하지만, 정시 모집에서는 다양한 요소가 고려되므로, 실제 합격 여부는 최종 점수와 경쟁률, 지원자들의 평균 성적 등 여러 요인에 따라 결정됩니다. 따라서, 정확한 예측을 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 가장 좋습니다.
+더 자세한 정보를 얻기 위해 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)에 접속해보시거나, 동의대학교 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "학생부종합전형"이라는 용어가 원문에 없으며, 이는 다소 부정확한 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "학생부종합전형"이라는 추가 정보가 포함되어 있어 원문과의 일관성이 떨어집니다. 원문에서는 충원 합격자 발표에 대한 정보만 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예비 번호와 충원 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "학생부종합전형"이라는 용어가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, "학생부종합전형"이라는 용어가 원문에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확한 정보가 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, "학생부종합전형"이라는 용어가 추가되어 있어 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7542117600122819</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 학생부종합전형에서 충원 합격자 3차 발표 및 등록일정은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다. 이 기간 동안 합격자 발표가 이루어지며, 합격 여부는 홈페이지에서 개별 조회 가능합니다.
+동의대학교의 학생부종합전형에서는 충원 합격자가 발표되므로, 예비 12번을 받았다면 충원 합격 가능성은 있습니다. 하지만 최종 합격 여부는 합격자 명단이 공개될 때까지 확실하지 않습니다.
+따라서, 2024년 02월 20일까지 홈페이지에서 개별 조회를 통해 최종 합격 여부를 확인하시기 바랍니다. 더 자세한 정보나 추가 지원에 대한 궁금증이 있다면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 입학 가능성에 대한 일반적인 설명을 제공하지만, 원본 텍스트에서 제시된 구체적인 수치(4.75 성적과 4.18 평균 등급)를 명확히 반영하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 입학 가능성에 대한 설명을 포함하고 있지만, 원본 텍스트의 구체적인 데이터와는 일치하지 않는 부분이 있습니다. 예를 들어, "단순 교과 성적이 결정적인 것은 아닙니다"라는 주장은 원본 텍스트의 수치적 근거와 일치하지 않습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 데이터와 비교할 때 일부 정보가 누락되어 있어 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과의 입학 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와의 일치가 부족하여 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7152474887228178</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적이 주어졌을 때, 정시 합격 가능성은 모집단위와 전공에 따라 다르게 판단됩니다. 특히 유아교육학과의 경우, 입학사정관이 평가하는 영역 중 학업역량 외에도 공동체역량, 전공적합성 등 다양한 요소를 고려하므로 단순 교과 성적이 결정적인 것은 아닙니다.
+4.75라는 좋은 성적을 가지고 있다면, 합격 가능성은 높아집니다만, 유아교육학과의 경우 입시 경쟁이 치열하기 때문에 다른 지원자들과 비교하여 평가받게 됩니다. 따라서 교과 성적이 좋다고 해서 무조건적으로 합격할 수는 없습니다.
+추천드리면, 정확한 합격 가능성 판단을 위해서는 모집단위별로 전형요소 반영비율과 입학사정관의 평가 기준 등을 확인하시고, 가능하다면 해당 대학의 입시 상담을 받으시는 것이 좋습니다. 또한, 지원자의 개인적 특성과 경험 등도 고려되어야 하므로, 자기소개서와 면접 준비를 철저히 하는 것도 중요합니다.
+더 자세한 정보가 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률, 지원 인원, 모집 인원 등의 정보를 포함하고 있지만, 원본 텍스트의 주요 사실인 아동학과의 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 누락되어 있습니다. 또한, 제공된 정보가 원본 텍스트와 일치하지 않거나 부정확한 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 영어 등급 평균 2.34, 수능 4개 영역 등급 평균 3.37)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 있어 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어져 다소 일관성이 부족할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 평균 등급에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 원본 텍스트의 핵심 정보와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.540034594169069</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 바탕으로 답변 드리겠습니다.
+보육가정상담학과 일반학생전형의 경우, 지원 인원이 145명이고 모집인원은 22명입니다. 경쟁률은 6.59이며, 충원 합격 (후보순위)은 37명입니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 영어 등급의 평균은 2.34이며, 수능 4개 영역 등급의 평균은 3.37입니다.
+당신의 환산등급이 4.16이라면, 이는 상대적으로 높은 점수로 보입니다. 하지만, 경쟁률과 충원 합격 인원을 고려할 때, 4.16이라는 등급으로도 확실한 합격을 보장받기는 어렵습니다.
+결론적으로, 환산등급이 4.16이라면 충분히 좋은 점수지만, 경쟁률과 모집인원을 고려하면 높은 순위에서 선발될 가능성이 있습니다. 하지만, 확실한 합격을 보장받기 위해서는 더 높은 등급이나 다른 지원 전략이 필요할 수 있습니다.
+추합까지 생각한다면, 충분히 좋은 성적일 것으로 보이지만, 최종 결정은 입학처에서 발표하는 결과를 기다려보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 소프트웨어공학부가 정시모집을 한다고 주장하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답에서는 정시모집이 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 불가능성을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 전혀 맞지 않으며, 문맥에 적합하지 않은 정보를 제공합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.425712521037095</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부는 정시모집으로 모집되고 있습니다. 지원을 위해서는 평균적으로 3.77등급 정도의 영어 점수와 4.49등급 정도의 수능 4개 영역 등급이 필요합니다.
+이는 주요 통계에서 얻은 정보이며, 실제 경쟁률과 모집인원에 따라 요구되는 점수가 변동될 수 있으므로, 최종적인 지원 자격을 확인하기 위해서는 대학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 관계자와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가의 주요 요소인 공동체 역량, 학업 역량, 전공 적합성을 언급하고 있지만, 원본 텍스트에서 제시된 면접 고사와 학생부 교과성적에 대한 언급이 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접 고사와 학생부 교과성적에 대한 정보가 포함되어 있지 않아 일관성이 떨어집니다. 이로 인해 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 서류 평가에 대한 정보를 제공하고 있으며, 관련된 세부 사항을 다루고 있습니다. 그러나 원본 텍스트의 모든 주요 포인트를 다루지 않기 때문에 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 평가 영역에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 연결이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가의 요소를 설명하고 있지만, 원본 텍스트의 중요한 요소인 면접 고사와 학생부 교과성적에 대한 정보가 누락되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 주요 요소를 충분히 반영하지 못해 전반적인 품질이 떨어집니다. 이로 인해 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 중요한 정보가 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6509390534925208</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 정원외 서류평가에서는 학업역량, 공동체역량, 전공적합성 등이 평가영역으로 설정되어 있습니다. 이들 영역에 대한 세부 내용은 다음과 같습니다:
+1. **학업역량**: 이 부분에서는 학생 개인의 노력과 교사의 평가를 중점적으로 보게 됩니다. 특히, 학생 개인의 노력이 없는 교사의 관찰과 평가는 서류평가에서 배제됩니다.
+2. **공동체역량**: 이 영역에서는 협업능력과 공동체 목표를 위한 협력적 태도, 나눔과 배려 등을 중점적으로 보게 됩니다. 학교폭력 여부도 확인되며, 이를 통해 학생의 공동체 역량을 평가합니다.
+3. **전공적합성**: 이 부분에서는 지원전공(계열) 관련 활동과 경험, 학업의지, 학교생활의 적극적 참여 등을 중점적으로 보게 됩니다.
+따라서 세특 내용에 대한 준비는 다음과 같이 이루어질 수 있습니다:
+1. **학업역량**: 과목별 성적 추이와 수업시간에서의 활동을 강조하며, 주도적인 노력과 적극적인 참여를 보여주는 사례를 준비합니다.
+2. **공동체역량**: 협력적 태도나 나눔과 배려를 실천한 경험을 강조하고, 학교폭력 여부에 대한 확인 점검을 합니다.
+3. **전공적합성**: 지원하는 전공(계열) 관련 활동과 경험을 구체적으로 설명하며, 학업의지를 보여주는 사례를 준비합니다.
+특히, 세특 내용은 서류평가에서 중요한 역할을 하므로, 세부적인 내용을 잘 정리하고 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 지원 인원, 경쟁률, 평균 표준 변환 점수와 같은 추가 정보를 제공하지만, 이 정보가 원본 텍스트의 내용과 일치하는지 확인할 수 없습니다. 원본 텍스트의 평균 등급과 비교할 때, 4.08의 성적이 최초합격자의 평균 등급보다 약간 높은 수준이라는 점은 맞지만, 다른 수치들은 원본 텍스트에 명시되어 있지 않으므로 정확성에 의문이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 원본 텍스트와 충돌할 수 있는 가능성이 있습니다. 예를 들어, 경쟁률과 지원 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원자의 성적과 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보에 비해 추가적인 세부사항이 많아 약간의 주제 이탈이 있을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 추가된 정보가 원본 텍스트의 흐름과 완벽하게 일치하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 비교할 때 정확성이 떨어질 수 있습니다. 특히, 경쟁률과 지원 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 정확성에 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 세부사항이 추가되어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7709522733500248</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 최초합격자를 보면 지원 인원이 146명이고 경쟁률이 4.87입니다. 평균 표준 변환 점수 합은 330.11이며, 이는 정시 성적이 4.08인 경우에 비해 약간 높습니다.
+정시 성적 4.08을 가진 지원자가 동의대학교 소프트웨어공학부 최초합격자로 합격할 가능성은 낮지만, 경쟁률이 높지 않은 모집단위에서는 가능성이 있습니다. 특히 충원 합격 (후보순위) 인원 수가 63명으로 많은데, 이는 합격 기회를 더 넓게 만듭니다.
+따라서 정시 성적 4.08을 가진 지원자가 동의대학교 소프트웨어공학부 최초합격자로 합격할 가능성은 있지만, 확실한 것은 아닙니다. 입학사정관 제도와 면접 등 다양한 평가 요소들이 함께 고려되기 때문에, 개인의 전반적인 성적과 활동이 중요합니다.
+추천드리면, 동의대학교의 공식 웹사이트를 방문하여 최신 정보를 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다. https://ipsi. deu.ac.kr/main.do 를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고, 소프트웨어공학부에 대한 정보로 변경되었습니다. 이는 원본 텍스트와의 일관성을 잃게 만듭니다. 또한, 경쟁률과 지원 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이러한 정보는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 정보는 포함되어 있지 않습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로 보이지만, 소프트웨어공학부에 대한 정보로 대체되었습니다. 이는 질문의 맥락과 관련이 있지만, 정확한 정보가 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않고 분리된 느낌을 줍니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 소프트웨어공학부에 대한 정보를 제공하고 있으며, 이는 정확성이 떨어지는 결과를 초래합니다. 또한, 제공된 경쟁률과 지원 인원 정보는 확인되지 않은 사실입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락과 관련이 있지만, 제공된 정보가 정확하지 않기 때문에 의미적으로 적절하지 않습니다. 원본 텍스트의 주제와는 다소 동떨어진 내용입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 정보의 정확성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5545922725047777</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원 인원이 146명이고 경쟁률이 4.87입니다. 평균 5등급을 가지고는 충분히 합격 가능성이 있습니다만, 실제 경쟁률과 지원자의 수준 등 다양한 요인들이 고려되어야 합니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 이는 비교적 높은 점수입니다. 따라서 평균 5등급만으로는 확실한 합격을 보장받기는 어렵습니다.
+하지만, 평균 5등급이면 상대적으로 좋은 성적을 보여주고 있어 충분히 경쟁력을 갖추고 있습니다. 실제 입학사정관의 평가와 지원자의 수준 등 다양한 요인들이 고려되기 때문에, 확실한 합격 여부는 정시모집 결과를 통해 확인해야 합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 최초합격자와 최종등록자의 평균 등급에 대한 정보는 누락되어 있습니다. 또한, 신소재공학과의 모집 인원과 지원 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 신소재공학과의 평균 점수와 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 신소재공학과에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 판단과는 다소 거리가 있습니다. 추가적인 정보가 포함되어 있지만, 원본 텍스트의 주제와는 약간의 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 일관성이 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 논리적인 흐름이 약간 깨질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 이는 정확성에 부정적인 영향을 미칩니다. 특히, 신소재공학과의 평균 점수와 경쟁률에 대한 정보는 원본 텍스트와 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이는 전체적인 품질에 부정적인 영향을 미칩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하지만, 일부 내용은 원본 텍스트의 맥락과 맞지 않는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보가 혼합되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6526285208296506</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 의료보건생활대학 신소재공학과의 경쟁률, 평균 점수 등을 고려해보겠습니다.
+- **신소재공학과**의 경우:
+  - 모집 인원: 5명
+  - 지원 인원: 36명
+  - 경쟁률: 7.20
+  - 충원 합격 (후보순위): 5명
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 338.76
+  - 수능 4개 영역 등급의 평균: 3.82
+- **신소재공학과**의 경우, 평균 점수가 338.76이고, 평균 등급이 3.82입니다. 이는 경쟁률이 높은 학과임을 나타냅니다.
+당신의 정시 성적이 4.28이라면, 이는 매우 높은 점수이며, 이 점수로는 신소재공학과에 충원 합격할 확률이 상대적으로 높습니다. 그러나 경쟁률이 높고 모집 인원이 적기 때문에, 정확한 합격 여부는 지원자의 전체 성적과 평균 점수를 비교하여 결정해야 합니다.
+만약에 4.28이라는 점수가 신소재공학과의 평균 점수보다 높다면, 충원 합격 가능성은 상대적으로 높습니다. 그러나 정확한 결과는 입시 결과 발표 시점에서 확인해야 합니다.
+추가 정보를 원하시거나 더 자세한 분석이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, "자기소개서가 요구되는 경우가 있으므로"라는 부분은 원문과 모순되는 정보입니다. 따라서 일부 사실이 정확하지 않다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 응답은 원문과 일부 일치하지만, 자기소개서가 필요할 수 있다는 추가 정보는 원문과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 수능 일반학생전형과 자기소개서의 필요성에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 자기소개서의 필요성에 대한 모순된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 응답의 일부 내용은 정확하지만, 자기소개서가 필요할 수 있다는 주장은 원문과 상충하므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 모순된 정보로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 내용이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5975583390238322</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 주로 수능 점수를 기준으로 합격자를 선정합니다. 따라서 자기소개서는 필수적으로 작성하지 않아도 됩니다. 하지만 자기소개서가 요구되는 경우가 있으므로, 해당 전형의 공지사항을 확인해보시기 바랍니다.
+만약 자기소개서가 필요하다면, 다음과 같은 내용들을 포함할 수 있습니다:
+1. 학업 목표와 계획
+2. 특기나 관심 있는 분야
+3. 성격과 장점
+4. 이전 경험 및 활동
+자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시거나, 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4개 영역 등급이 4.5일 경우의 합격 가능성에 대한 여러 요소를 잘 설명하고 있으며, 원본 텍스트의 정보와 일치하는 부분이 많습니다. 그러나 일부 세부 사항에서 원본 텍스트의 내용을 완전히 반영하지는 않아서 4점을 부여합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나 몇 가지 세부 사항에서 약간의 차이가 있어 4점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공하고 있습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 약간의 비약이 있어 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부 사항에서 정확성이 떨어질 수 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선의 여지가 있어 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 약간의 부적절함이 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.660272905119043</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가 모집에 들어갈 수 있는지 결정하는 요소들은 여러 가지가 있습니다.
+1. **모집단위와 경쟁률**: 각 모집단위별로 지원 인원과 모집 인원이 다르므로, 경쟁률을 고려해야 합니다. 예를 들어, 경쟁률이 높은 모집단위에서는 4.5라는 점수도 충분히 경쟁력을 갖추지만, 경쟁률이 낮은 모집단위에서는 더 높은 점수가 필요할 수 있습니다.
+2. **모집인원과 지원인원**: 각 모집단위별로 모집 인원과 지원 인원의 차이가 크다면, 충원 합격자가 많아지므로 경쟁률이 낮아질 수 있습니다. 반대로 모집 인원이 적고 지원 인원이 많은 경우에는 경쟁률이 높아질 수 있습니다.
+3. **전형별 특성**: 각 전형별로 산출방법과 평균 점수가 다르므로, 해당 전형의 특성을 고려해야 합니다. 예를 들어, ICT융합공과대학의 컴퓨터공학과에서는 4.5라는 점수도 충분히 경쟁력을 갖추지만, 공과대학의 기계공학과에서는 더 높은 점수가 필요할 수 있습니다.
+4. **기타사항**: 결석일수와 학생부 등급 등의 요소들도 고려해야 합니다. 예를 들어, 나군 실기/실적(경기실적우수자전형)의 경우 출결상황이 반영되므로 결석일수가 적은 경우 더 유리할 수 있습니다.
+따라서, 동의대학교에 추가 모집으로 들어갈 수 있는지 결정하기 위해서는 각 모집단위별로 지원 인원과 모집 인원, 경쟁률 등을 확인해야 합니다. 이를 위해 공식 홈페이지나 입학처와 연락을 취하는 것이 가장 정확한 방법입니다.
+만약 자세한 정보를 원하시면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 합격 기준에 대한 정보를 제공하고 있으며, 평균 등급에 대한 언급도 포함되어 있습니다. 그러나 특정 등급을 예측하기 어렵다는 점에서 일부 정보가 부족하다고 볼 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 신소재공학과의 평균 등급에 대한 언급이 포함되어 있습니다. 다만, 특정 등급을 예측하기 어렵다는 점에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 기준에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 약간의 흐름이 끊기는 부분이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 신소재공학과의 합격 기준에 대한 정보를 정확하게 전달하고 있습니다. 다만, 특정 등급 예측에 대한 언급이 다소 모호합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 특정 등급 예측에 대한 언급이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6097203791324293</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과에 대한 정확한 합격 기준 등급을 제공하기 위해서는 해당 학과의 정시 모집군, 전형 요소 반영 비율, 그리고 최근 몇 년간의 입학 성적 등을 고려해야 합니다. 하지만 현재 주어진 정보만으로는 특정 등급을 예측하기 어렵습니다.
+2024학년도 동의대학교 신소재공학과의 정시 모집군과 전형 요소 반영 비율은 다음과 같습니다:
+- 정시모집군: (가)군
+- 전형요소 반영비율: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+최근 몇 년간의 입학 성적을 참고하면, 대략적인 합격 기준 등급을 예측할 수 있습니다. 하지만 이는 변동성이 있을 수 있으며, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다.
+추가적으로, 동의대학교의 공식 웹사이트인 "https://ipsi. deu.ac.kr/main.do"에서 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 언급된 "작년에 신소재공학과의 표준 변환 점수 합의 평균은 452.82"라는 정보는 원본 텍스트에 포함되어 있지 않으며, 잘못된 정보입니다. 원본 텍스트는 378.15점이라는 점수를 제공하고 있으며, 생성된 응답은 이와 상충하는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 447점이 신소재공학과의 평균 점수보다 훨씬 높다고 명시하고 있지만, 생성된 응답에서는 현재 점수가 작년보다 낮을 수 있다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 불필요하게 복잡해졌습니다. 그러나 여전히 합격 가능성에 대한 논의는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 정보의 연결이 매끄럽지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 점수에 대한 잘못된 언급이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보와 복잡한 문장 구조로 인해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.775343829248859</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 환산 점수가 447점인 경우, 작년 신소재공학과의 최종 평균 점수와 비교해볼 수 있습니다. 작년에 신소재공학과의 표준 변환 점수 합의 평균은 452.82였습니다.
+현재의 표준점수가 작년보다 약간 낮은 점수인 경우, 경쟁률이 작년보다 높아질 수 있습니다. 하지만 동의대학교는 정시 모집에서 다양한 요소를 고려하기 때문에, 작년과 유사한 결과가 나올 가능성도 있습니다.
+만약에 작년의 경쟁률이나 지원 인원 등이 크게 변동하지 않았다면, 현재 점수가 충분히 합격 가능성을 가지고 있을 수 있습니다. 하지만 정확한 확률을 예측하기 위해서는 동의대학교 입학사정관들의 평가 기준과 작년의 실제 합격자들의 점수 분포 등을 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 성적 외 평가와 전공 적합성, 활동 및 경험을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와 비교하여 합격 가능성을 평가하는 데 필요한 정보가 부족합니다. 따라서 일부 사실이 누락되었거나 불완전하게 반영되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 성적이 4.3 등급대에서 4.1~4.2로 내려간다고 언급하면서도, 원본 텍스트의 평균 성적과의 비교를 명확히 하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 성적 외 평가와 같은 추가적인 요소를 강조하여 다소 다른 방향으로 나아가고 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 성적 외 평가와 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 성적 데이터와 비교하여 정확성이 떨어집니다. 성적에 대한 명확한 비교가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 구체적인 사실과 비교할 때 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 그러나 일부 부분에서 복잡한 표현이 사용되어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5401321050576899</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2로 내려가더라도, 동의대학교의 신소재공학부 일반학생전형에 합격할 수 있는지는 여러 요인에 따라 달라집니다. 주요 요인으로는:
+1. **성적 외 평가**: 서류심사와 면접 등 성적 외 평가에서 좋은 점수를 받는 것이 중요합니다.
+2. **전공적합성**: 자신의 전공 적합성을 잘 보여줄 수 있어야 합니다.
+3. **활동 및 경험**: 학교 밖 활동이나 프로젝트, 연구 등이 있다면 이를 잘 보여줘야 합니다.
+특히 동의대학교의 경우, 2024학년도 주요 변경사항에 따르면 전형 요소 반영 비율이 서류(70%)와 면접(30%)으로 구성되어 있습니다. 따라서 성적 외 평가에서 좋은 점수를 받는 것이 합격 가능성에 큰 영향을 미칩니다.
+더 자세한 정보나 추가 지원 방법은 동의대학교 입학처 웹사이트를 참조하거나, 직접 입학처와 문의하는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형 성적 산출 방법에 대한 예시를 제공하고 있지만, 원본 텍스트에서 제공된 구체적인 성적 데이터와는 다소 차이가 있습니다. 원본 텍스트의 평균 점수와 표준 편차에 대한 정보는 포함되어 있지 않으며, 예시 성적이 실제 성적을 반영하지 않기 때문에 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 성적 산출 방법에 대한 설명이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 구체적인 성적 데이터와는 다른 정보를 제공하고 있어 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형에 대한 정보를 제공하고 있으며, 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 성적 데이터에 대한 언급이 부족하여 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약해져 있어 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 산출 방법에 대한 예시를 제공하지만, 원본 텍스트의 구체적인 성적 데이터와는 다소 차이가 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 의미에 적합하지만, 구체적인 성적 데이터와의 연결이 부족하여 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6940170606308237</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과로 수능 일반학생전형을 지원하실 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+1. **국어 표준점수** + 
+2. **수학 표준점수** + 
+3. **영어 등급점수** + 
+4. **탐구 표준점수**
+예를 들어, 수능 영역별 표준점수와 등급점수가 다음과 같다고 가정해보겠습니다:
+- 국어: 104
+- 수학(미적분): 108 (가산점 포함)
+- 영어: 4등급 (점수: 123)
+- 탐구: 물리Ⅰ (표준점수: 59)
+이 경우, 성적이 다음과 같이 계산됩니다:
+\[ 104 + (108 \times 1.1) + 123 + 59 = 104 + 118.8 + 123 + 59 = 404.8 \]
+따라서, 이 예시에서는 **404.8** 점이 됩니다.
+실제 성적은 지원자의 개인적인 성적이 반영되므로, 위의 예시는 참고용이며 실제 성적과 다를 수 있습니다. 정확한 성적을 확인하려면 동의대학교 입학처 웹사이트나 전형 안내서를 참조하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 분석하고 있으며, 의료경영학과와 물리치료학과의 경쟁률을 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 다양한 학과의 평균 성적과 표준 편차에 대한 정보는 포함되어 있지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 원본 텍스트에서 제시된 여러 학과의 성적 정보를 생략하고 특정 학과에만 초점을 맞추고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트의 모든 정보를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 특정 학과의 경쟁률에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 모든 세부 사항을 반영하지 않아 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주어진 질문에 적절하게 의미를 전달하고 있으며, 원본 텍스트의 맥락과 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6327009107070685</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적이 주어졌을 때, 추합 가능성에 대한 판단은 해당 단과대학 및 모집단위의 경쟁률과 지원 인원 등을 고려해야 합니다.
+주어진 데이터를 바탕으로 분석해보겠습니다:
+1. **경쟁률**: 5.27이라는 성적은 매우 높은 수준입니다. 대부분의 단과대학에서 이 성적은 상위 경쟁력을 가집니다.
+2. **지원 인원 및 모집인원**:
+   - 의료경영학과: 지원 인원 14명, 모집인원 5명 (경쟁률 2.80)
+   - 물리치료학과: 지원 인원 51명, 모집인원 4명 (경쟁률 12.75)
+3. **경쟁률 분석**:
+   - 의료경영학과의 경쟁률은 2.80으로 상대적으로 낮습니다.
+   - 물리치료학과의 경쟁률은 12.75로 매우 높습니다.
+따라서, 5.27이라는 성적을 가진 지원자는 다음과 같은 단과대학에서 추합 가능성이 높다고 볼 수 있습니다:
+- **의료경영학과**: 이 모집단위는 경쟁률이 낮아서 5.27이라는 성적을 가진 지원자가 충원 합격(후보순위)에 포함될 가능성이 높습니다.
+- **물리치료학과**: 이 모집단위의 경쟁률이 매우 높기 때문에, 5.27이라는 성적만으로는 추합하기 어려울 것으로 보입니다.
+따라서, 5.27이라는 성적을 가진 지원자는 **의료경영학과**에서 추합 가능성이 높다고 판단할 수 있습니다. 그러나 물리치료학과 같은 경쟁률이 매우 높은 모집단위에서는 이 성적만으로는 추합하기 어려울 것으로 보입니다.
+추후에 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 통해 추가적인 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하지만, 정시 성적 4.2가 평균보다 낮다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에 따르면 4.2는 평균보다 높은 성적입니다. 따라서 일부 사실이 잘못 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적에 대한 해석이 상충합니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 명시하고 있으나, 생성된 응답은 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 합격 가능성에 대한 분석을 제공하며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적에 대한 해석이 잘못되어 있어 정확성 점수가 낮습니다. 원본 텍스트의 사실과 상충하는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 정시 성적에 대한 해석에서 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 내용이 혼란스러울 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6363097916576061</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원 자료를 바탕으로 분석해보겠습니다.
+- **모집 인원**: 30명
+- **지원 인원**: 146명
+- **경쟁률**: 4.87
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 7.35
+이러한 정보를 바탕으로, 정시 성적 4.2는 평균보다 낮은 점수입니다. 하지만 동의대학교 소프트웨어공학부의 경쟁률이 4.87이라는 것을 고려하면, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+**합격 가능성 분석:**
+1. **성적 평균과 비교**: 정시 성적 4.2는 평균 점수인 317.87보다 훨씬 낮습니다.
+2. **표준 편차와 관련**: 표준 편차가 7.35이므로, 성적이 평균보다 약간 낮더라도 합격 가능성은 있습니다.
+**추천 조치:**
+1. **추천서 및 자기소개서 작성**: 강점과 특기사항을 잘 표현하여 추천서와 자기소개서를 준비합니다.
+2. **면접 준비**: 면접에서도 성적 외의 요인들을 잘 보여줄 수 있도록 준비합니다.
+결론적으로, 정시 성적 4.2로도 동의대학교 소프트웨어공학부에 합격할 가능성이 있으나, 경쟁률이 높아서 확실한 것은 아닙니다. 추가적인 지원 자료와 면접 준비를 통해 최선을 다하는 것이 중요합니다.
+더 궁금하신 점이 있으면 https://ipsi.deu.ac.kr/main.do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 점수만으로는 합격 가능성을 확정적으로 판단하기 어렵다고 언급하고 있습니다. 그러나 원본 텍스트에서는 3.92가 화학환경공학부의 평균 등급보다 높은 성적이라고 명시하고 있어, 합격 가능성이 높다고 설명하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 3.92라는 점수에 대한 해석이 다릅니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 확정적으로 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부 일반학생전형에 대한 정보와 관련된 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용에 대한 직접적인 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 점수에 대한 해석이 원본 텍스트와 다르며, 이로 인해 정확성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 이를 부정적으로 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주어진 질문에 대해 적절한 의미를 전달하고 있으며, 관련된 정보를 제공합니다. 그러나 원본 텍스트의 의미와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.655657715948927</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수만으로는 확정적으로 판단하기 어렵습니다. 동의대학교 식 정시에서 화학환경공학부 일반학생전형에 지원하려면, 전형명, 모집단위, 수능 성적 산출방법 등이 일치해야 합니다.
+주어진 정보만으로는 다음과 같은 점을 확인해야 합니다:
+1. 동의대학교 식 정시에서 화학환경공학부 일반학생전형에 대한 전형성적 산출 방법이 무엇인지.
+2. 3.92라는 점수가 해당 전형성적 산출 방법에 따라 어떻게 반영되는지.
+주어진 정보는 동의대학교 식 정시에서 여러 모집단위와 전형명에 따른 수능 성적 산출 방법을 제공하고 있지만, 화학환경공학부 일반학생전형에 대한 구체적인 정보가 없습니다. 따라서, 더 자세한 정보를 확인하기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 동의대학교 입시 홈페이지를 방문하여 해당 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정확한 정보를 제공하지 않고 있으며, 평균 수능 점수와 표준 편차에 대한 수치가 원본 텍스트와 일치하지 않습니다. 또한, 응답에서 제시된 점수와 관련된 계산이 잘못되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 귀하의 성적이 합격 가능성이 높다고 판단했지만, 생성된 응답은 합격하기 어렵다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 수치와 계산을 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 있으며, 특히 합격 가능성에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 일관성이 부족하여 혼란을 줄 수 있습니다. 명확한 주제를 유지하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6526593762747162</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 경우, 모집 인원이 3명이며 지원 인원은 18명으로 경쟁률이 높습니다. 평균 수능 점수는 452.82이고 표준 편차가 8.02입니다.
+당신의 수능 점수가 4.25로, 이 점수는 표준점수 변환을 통해 평균보다 상대적으로 낮습니다. 평균 점수가 452.82이고 표준 편차가 8.02이므로, 당신의 점수는 평균에서 약 -3.75표준편차 정도 떨어져 있습니다.
+이러한 상황에서는 경쟁률과 평균 점수가 매우 높기 때문에 합격하기 어렵다고 판단할 수 있습니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 결과를 확인하려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu.ac.kr/main.do 를 방문하여 최신 정보를 확인하시거나, 동의대학교 입학처에 직접 문의해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 영화학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 평균 점수 4.47은 원본 텍스트에 명시된 404.43과 관련이 없으며, 이는 잘못된 정보입니다. 또한, 4.2라는 점수가 상대적으로 높은 점수라고 언급했으나, 이는 원본 텍스트의 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수와 관련된 정보에서 불일치가 발생합니다. 경쟁률에 대한 언급은 원본 텍스트에 없으므로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로서 관련성이 높지만, 원본 텍스트의 특정 세부사항을 잘못 해석하거나 추가적인 정보를 제공하여 약간의 불일치가 발생합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 관련된 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 일부 잘못된 정보로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7160247655241359</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상대적으로 높은 점수입니다. 하지만, 합격 가능성은 여러 요인에 따라 달라집니다.
+1. **경쟁률**: 영화학과의 경쟁률이 2.20이라는 것을 볼 수 있습니다. 이는 지원 인원이 모집 인원보다 약간 더 많은 상황을 의미합니다.
+2. **평균 점수**: 해당 학과의 평균 점수가 4.47이라는 것을 확인할 수 있습니다. 따라서, 4.2라는 점수는 평균보다 약간 낮은 수준입니다.
+3. **표준 편차**: 표준 편차가 0.76이라는 것은 점수의 분산이 상대적으로 작다는 것을 의미합니다. 이는 합격 점수가 좁게 분포되어 있다는 것을 나타냅니다.
+따라서, 4.2라는 점수로는 충분히 합격할 수 있는 가능성은 있지만, 확실한 것은 아닙니다. 경쟁률이 낮고 평균 점수가 높지 않은 경우에 더 유리합니다. 하지만, 표준 편차가 작다는 점을 고려하면, 4.2라는 점수로는 합격할 수 있는 가능성은 있습니다.
+만약 확실한 정보를 얻고 싶다면, 해당 대학의 입학처에 문의하거나, 온라인 커뮤니티나 카페에서 같은 상황을 겪은人们的对话内容涉及2024年高考（普通生招生）最终注册的学生情况，包括ICT融合工学院的计算机科学与工程系、软件工程系、人工智能系、电气工程和电子工程系、数字内容系、游戏工程系、电影学系等专业的录取人数、申请人数、竞争比例以及国语+数学+探究（2个科目）标准转换分数总平均值、英语等级平均值、4个科目等级的平均值、4个科目等级的标准差值等信息。此外，还提到了2024年主要变化事项，包括学部拆分为学系、学部合并、学系（专业）名称更改等内容。
+对于问题“这次以电影学系为对象参加了正试招生。我的成绩是4.2左右，请问能录取吗？”的回答如下：
+根据提供的信息，电影学系的平均标准转换分数总和为404.43，标准差为27.09。你的成绩为4.2，这在数值上相对较低。考虑到电影学系的竞争率为2.20（即申请人数多于录取名额），且平均标准转换分数较高，你可能需要更高的分数才能被录取。
+然而，具体能否录取还取决于多个因素，包括但不限于：
+- 你的其他科目成绩是否均衡
+- 是否有额外的加分项或特长展示
+- 入学考试的具体要求
+建议你可以直接联系学校招生办公室获取更准确的信息。此外，也可以参考往年的录取分数线和标准来评估自己的情况。
+如果你需要进一步的帮助或者想了解更多信息，请访问“https://ipsi. deu.ac.kr/main.do”以获得最新的官方信息。</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 "기타 질의응답" 부분에서 "질의응답"이 두 번 반복되어 불필요한 중복이 발생했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 면접 절차를 설명하고 있습니다. 다만, 중복된 내용이 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 중복된 표현이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 명확하게 전달하고 있습니다. 그러나 중복된 내용이 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 면접 절차에 대한 정확한 정보를 제공합니다. 그러나 중복된 표현이 있어 약간의 정확성 저하가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 중복된 내용이 있어 약간의 품질 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 중복된 표현이 있어 약간의 의미 전달이 흐려질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 중복된 내용이 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8505353587088571</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응答（注意：以下是韩语回答）：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 지원자의 지원 동기와 학업 역량, 전공 적합성을 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
